--- a/Datasets/Cyton datasets/Cyton_bp_dataset.xlsx
+++ b/Datasets/Cyton datasets/Cyton_bp_dataset.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\BCI-UBC\Datasets\Cyton datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D52B7-8205-4B42-883F-D6C9229199BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B54338-5889-4DB2-BDBD-6FFBCCEBFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="900" windowWidth="18900" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trainning" sheetId="1" r:id="rId1"/>
-    <sheet name="testing" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Training" sheetId="2" r:id="rId2"/>
+    <sheet name="Testing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -382,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F8F122-F9FA-4842-B502-7310FB3013F5}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5034,45 +5035,1932 @@
         <v>1</v>
       </c>
     </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.31086478795884886</v>
+      </c>
+      <c r="B161">
+        <v>0.27155688910404235</v>
+      </c>
+      <c r="C161">
+        <v>0.26196577839503954</v>
+      </c>
+      <c r="D161">
+        <v>0.25452707861107149</v>
+      </c>
+      <c r="E161">
+        <v>0.25628716380081784</v>
+      </c>
+      <c r="F161">
+        <v>0.25620202125330566</v>
+      </c>
+      <c r="G161">
+        <v>0.2556001711573847</v>
+      </c>
+      <c r="H161">
+        <v>0.26524558797884962</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.28437305042054112</v>
+      </c>
+      <c r="B162">
+        <v>0.2608425061912909</v>
+      </c>
+      <c r="C162">
+        <v>0.25668513877752552</v>
+      </c>
+      <c r="D162">
+        <v>0.25349967520218569</v>
+      </c>
+      <c r="E162">
+        <v>0.25449325105394183</v>
+      </c>
+      <c r="F162">
+        <v>0.2532999291238115</v>
+      </c>
+      <c r="G162">
+        <v>0.25913470563498753</v>
+      </c>
+      <c r="H162">
+        <v>0.2594493937749312</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.32068465292486353</v>
+      </c>
+      <c r="B163">
+        <v>0.26211727867364237</v>
+      </c>
+      <c r="C163">
+        <v>0.25735209997471598</v>
+      </c>
+      <c r="D163">
+        <v>0.25616367223669556</v>
+      </c>
+      <c r="E163">
+        <v>0.25424917645592243</v>
+      </c>
+      <c r="F163">
+        <v>0.25415873563114771</v>
+      </c>
+      <c r="G163">
+        <v>0.25524792693599407</v>
+      </c>
+      <c r="H163">
+        <v>0.26182002502078816</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.31117883885608555</v>
+      </c>
+      <c r="B164">
+        <v>0.2660157534614393</v>
+      </c>
+      <c r="C164">
+        <v>0.26658752485309689</v>
+      </c>
+      <c r="D164">
+        <v>0.25530683936284587</v>
+      </c>
+      <c r="E164">
+        <v>0.25822165011674136</v>
+      </c>
+      <c r="F164">
+        <v>0.25561142674627885</v>
+      </c>
+      <c r="G164">
+        <v>0.26338415979814095</v>
+      </c>
+      <c r="H164">
+        <v>0.26352616249853583</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.31297306783390794</v>
+      </c>
+      <c r="B165">
+        <v>0.19656725015802437</v>
+      </c>
+      <c r="C165">
+        <v>0.2475818932853025</v>
+      </c>
+      <c r="D165">
+        <v>0.25319076000079138</v>
+      </c>
+      <c r="E165">
+        <v>0.24989957164410079</v>
+      </c>
+      <c r="F165">
+        <v>0.21981628930637995</v>
+      </c>
+      <c r="G165">
+        <v>0.25222610664719897</v>
+      </c>
+      <c r="H165">
+        <v>0.25822942171946528</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.29223912893755127</v>
+      </c>
+      <c r="B166">
+        <v>0.25582069384783329</v>
+      </c>
+      <c r="C166">
+        <v>0.25805308235987162</v>
+      </c>
+      <c r="D166">
+        <v>0.25392662037568919</v>
+      </c>
+      <c r="E166">
+        <v>0.2557211774940874</v>
+      </c>
+      <c r="F166">
+        <v>0.25408334732026638</v>
+      </c>
+      <c r="G166">
+        <v>0.25664400157554129</v>
+      </c>
+      <c r="H166">
+        <v>0.25984582007278145</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.29668521285114785</v>
+      </c>
+      <c r="B167">
+        <v>0.26517007962335076</v>
+      </c>
+      <c r="C167">
+        <v>0.25633393475764893</v>
+      </c>
+      <c r="D167">
+        <v>0.25383243365500641</v>
+      </c>
+      <c r="E167">
+        <v>0.25378496999139977</v>
+      </c>
+      <c r="F167">
+        <v>0.25279569477933328</v>
+      </c>
+      <c r="G167">
+        <v>0.2589770058655283</v>
+      </c>
+      <c r="H167">
+        <v>0.26330437372828103</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.30374291785486462</v>
+      </c>
+      <c r="B168">
+        <v>0.26027358818141955</v>
+      </c>
+      <c r="C168">
+        <v>0.25780546601207061</v>
+      </c>
+      <c r="D168">
+        <v>0.25206082812483505</v>
+      </c>
+      <c r="E168">
+        <v>0.25358958406910209</v>
+      </c>
+      <c r="F168">
+        <v>0.25156939785437926</v>
+      </c>
+      <c r="G168">
+        <v>0.25315077044334389</v>
+      </c>
+      <c r="H168">
+        <v>0.25564285956102473</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.54618629398847862</v>
+      </c>
+      <c r="B169">
+        <v>0.28143816370565805</v>
+      </c>
+      <c r="C169">
+        <v>0.28911884002432253</v>
+      </c>
+      <c r="D169">
+        <v>0.25994853102353055</v>
+      </c>
+      <c r="E169">
+        <v>0.27034102217801464</v>
+      </c>
+      <c r="F169">
+        <v>0.25327139546122363</v>
+      </c>
+      <c r="G169">
+        <v>0.26124262779266438</v>
+      </c>
+      <c r="H169">
+        <v>0.26619716835349339</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.34032500782376629</v>
+      </c>
+      <c r="B170">
+        <v>0.26281527392532522</v>
+      </c>
+      <c r="C170">
+        <v>0.25809282206699569</v>
+      </c>
+      <c r="D170">
+        <v>0.25431293476776445</v>
+      </c>
+      <c r="E170">
+        <v>0.25523215870488097</v>
+      </c>
+      <c r="F170">
+        <v>0.25353742110428251</v>
+      </c>
+      <c r="G170">
+        <v>0.25684718221696368</v>
+      </c>
+      <c r="H170">
+        <v>0.25793316051754012</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.56564164294082808</v>
+      </c>
+      <c r="B171">
+        <v>0.26656917248852674</v>
+      </c>
+      <c r="C171">
+        <v>0.26277265127446403</v>
+      </c>
+      <c r="D171">
+        <v>0.25313136331206038</v>
+      </c>
+      <c r="E171">
+        <v>0.25741439345552053</v>
+      </c>
+      <c r="F171">
+        <v>0.25236253195172087</v>
+      </c>
+      <c r="G171">
+        <v>0.25564885555902978</v>
+      </c>
+      <c r="H171">
+        <v>0.25917477513048542</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.4627171676210054</v>
+      </c>
+      <c r="B172">
+        <v>0.26911897339612312</v>
+      </c>
+      <c r="C172">
+        <v>0.26448373266993125</v>
+      </c>
+      <c r="D172">
+        <v>0.26307705382625934</v>
+      </c>
+      <c r="E172">
+        <v>0.26330665786312701</v>
+      </c>
+      <c r="F172">
+        <v>0.26408045787783208</v>
+      </c>
+      <c r="G172">
+        <v>0.26903692144219243</v>
+      </c>
+      <c r="H172">
+        <v>0.26665256401722182</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.43298595786371175</v>
+      </c>
+      <c r="B173">
+        <v>0.27307613873827774</v>
+      </c>
+      <c r="C173">
+        <v>0.26826257561421202</v>
+      </c>
+      <c r="D173">
+        <v>0.26170449010894259</v>
+      </c>
+      <c r="E173">
+        <v>0.26177880345022975</v>
+      </c>
+      <c r="F173">
+        <v>0.26374658111411947</v>
+      </c>
+      <c r="G173">
+        <v>0.2698272024794281</v>
+      </c>
+      <c r="H173">
+        <v>0.27135325925107623</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.30200789762211783</v>
+      </c>
+      <c r="B174">
+        <v>0.26391883668966654</v>
+      </c>
+      <c r="C174">
+        <v>0.25710619737422513</v>
+      </c>
+      <c r="D174">
+        <v>0.2580535439631691</v>
+      </c>
+      <c r="E174">
+        <v>0.26043102422834358</v>
+      </c>
+      <c r="F174">
+        <v>0.25521024115226421</v>
+      </c>
+      <c r="G174">
+        <v>0.26772020646004407</v>
+      </c>
+      <c r="H174">
+        <v>0.26425128593503017</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.37037286005527814</v>
+      </c>
+      <c r="B175">
+        <v>0.28194914748349048</v>
+      </c>
+      <c r="C175">
+        <v>0.2733909641409315</v>
+      </c>
+      <c r="D175">
+        <v>0.26089188653482309</v>
+      </c>
+      <c r="E175">
+        <v>0.2697429551065571</v>
+      </c>
+      <c r="F175">
+        <v>0.25759639026436904</v>
+      </c>
+      <c r="G175">
+        <v>0.26642573994312702</v>
+      </c>
+      <c r="H175">
+        <v>0.26256517936760082</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.32769869165249238</v>
+      </c>
+      <c r="B176">
+        <v>0.27353069003988917</v>
+      </c>
+      <c r="C176">
+        <v>0.26558557444213476</v>
+      </c>
+      <c r="D176">
+        <v>0.26021038771181376</v>
+      </c>
+      <c r="E176">
+        <v>0.2644064840199285</v>
+      </c>
+      <c r="F176">
+        <v>0.25953216786806887</v>
+      </c>
+      <c r="G176">
+        <v>0.25973718842745158</v>
+      </c>
+      <c r="H176">
+        <v>0.26290021613672926</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.35279985698562272</v>
+      </c>
+      <c r="B177">
+        <v>0.26324869158271036</v>
+      </c>
+      <c r="C177">
+        <v>0.25855948631831888</v>
+      </c>
+      <c r="D177">
+        <v>0.25587063939345867</v>
+      </c>
+      <c r="E177">
+        <v>0.25741895525403391</v>
+      </c>
+      <c r="F177">
+        <v>0.25822315612664321</v>
+      </c>
+      <c r="G177">
+        <v>0.25860700722996732</v>
+      </c>
+      <c r="H177">
+        <v>0.25914819638216396</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.3557559262648361</v>
+      </c>
+      <c r="B178">
+        <v>0.26894803551246665</v>
+      </c>
+      <c r="C178">
+        <v>0.27143991511279025</v>
+      </c>
+      <c r="D178">
+        <v>0.25764973371177918</v>
+      </c>
+      <c r="E178">
+        <v>0.26237044280544825</v>
+      </c>
+      <c r="F178">
+        <v>0.25618626049064375</v>
+      </c>
+      <c r="G178">
+        <v>0.26770606465330882</v>
+      </c>
+      <c r="H178">
+        <v>0.26213644430054156</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.31031707593763275</v>
+      </c>
+      <c r="B179">
+        <v>0.2624106487079424</v>
+      </c>
+      <c r="C179">
+        <v>0.26152995817051794</v>
+      </c>
+      <c r="D179">
+        <v>0.31198931690213855</v>
+      </c>
+      <c r="E179">
+        <v>0.26741517763183481</v>
+      </c>
+      <c r="F179">
+        <v>0.25938048459164881</v>
+      </c>
+      <c r="G179">
+        <v>0.2557835846108511</v>
+      </c>
+      <c r="H179">
+        <v>0.26333396418321836</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.30562456543662009</v>
+      </c>
+      <c r="B180">
+        <v>0.26078614239778553</v>
+      </c>
+      <c r="C180">
+        <v>0.2560176367201159</v>
+      </c>
+      <c r="D180">
+        <v>0.26132622737973299</v>
+      </c>
+      <c r="E180">
+        <v>0.26491812466799242</v>
+      </c>
+      <c r="F180">
+        <v>0.26561319635871111</v>
+      </c>
+      <c r="G180">
+        <v>0.2583027964379504</v>
+      </c>
+      <c r="H180">
+        <v>0.25972214321544906</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.3195410327890536</v>
+      </c>
+      <c r="B181">
+        <v>0.25847073859519465</v>
+      </c>
+      <c r="C181">
+        <v>0.25877391447417991</v>
+      </c>
+      <c r="D181">
+        <v>0.25840778165814654</v>
+      </c>
+      <c r="E181">
+        <v>0.25850460387548102</v>
+      </c>
+      <c r="F181">
+        <v>0.25933568665243412</v>
+      </c>
+      <c r="G181">
+        <v>0.25782270896828247</v>
+      </c>
+      <c r="H181">
+        <v>0.25957098216327706</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.30325795051681698</v>
+      </c>
+      <c r="B182">
+        <v>0.26445962606880519</v>
+      </c>
+      <c r="C182">
+        <v>0.26007601673529901</v>
+      </c>
+      <c r="D182">
+        <v>0.25971515988530408</v>
+      </c>
+      <c r="E182">
+        <v>0.26749253927325833</v>
+      </c>
+      <c r="F182">
+        <v>0.26125732732567436</v>
+      </c>
+      <c r="G182">
+        <v>0.25834413809457768</v>
+      </c>
+      <c r="H182">
+        <v>0.25769627376897464</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.36841223018008407</v>
+      </c>
+      <c r="B183">
+        <v>0.26552397045802434</v>
+      </c>
+      <c r="C183">
+        <v>0.26458027492086894</v>
+      </c>
+      <c r="D183">
+        <v>0.258993877622268</v>
+      </c>
+      <c r="E183">
+        <v>0.26776625124275821</v>
+      </c>
+      <c r="F183">
+        <v>0.2634400683914318</v>
+      </c>
+      <c r="G183">
+        <v>0.25792956309427262</v>
+      </c>
+      <c r="H183">
+        <v>0.26387895334637768</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.29152471888583875</v>
+      </c>
+      <c r="B184">
+        <v>0.25920424998262026</v>
+      </c>
+      <c r="C184">
+        <v>0.25491125157060152</v>
+      </c>
+      <c r="D184">
+        <v>0.26090616032958597</v>
+      </c>
+      <c r="E184">
+        <v>0.25945865829683334</v>
+      </c>
+      <c r="F184">
+        <v>0.26128017646538859</v>
+      </c>
+      <c r="G184">
+        <v>0.2557413525345254</v>
+      </c>
+      <c r="H184">
+        <v>0.26077878105254199</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.30458375873058308</v>
+      </c>
+      <c r="B185">
+        <v>0.26330148103366946</v>
+      </c>
+      <c r="C185">
+        <v>0.26283604669214389</v>
+      </c>
+      <c r="D185">
+        <v>0.26182777043975414</v>
+      </c>
+      <c r="E185">
+        <v>0.26578779912162448</v>
+      </c>
+      <c r="F185">
+        <v>0.26373654921181117</v>
+      </c>
+      <c r="G185">
+        <v>0.2573348375854812</v>
+      </c>
+      <c r="H185">
+        <v>0.25975476712774825</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.30284252317824029</v>
+      </c>
+      <c r="B186">
+        <v>0.2592250033724699</v>
+      </c>
+      <c r="C186">
+        <v>0.26169578838693336</v>
+      </c>
+      <c r="D186">
+        <v>0.25883811820419</v>
+      </c>
+      <c r="E186">
+        <v>0.26400259319722669</v>
+      </c>
+      <c r="F186">
+        <v>0.25840398199545506</v>
+      </c>
+      <c r="G186">
+        <v>0.25575979268158383</v>
+      </c>
+      <c r="H186">
+        <v>0.26009344323355332</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.32110781306356351</v>
+      </c>
+      <c r="B187">
+        <v>0.26338615038729918</v>
+      </c>
+      <c r="C187">
+        <v>0.26269358309839203</v>
+      </c>
+      <c r="D187">
+        <v>0.26466269571217277</v>
+      </c>
+      <c r="E187">
+        <v>0.26629397140276878</v>
+      </c>
+      <c r="F187">
+        <v>0.26531951648472701</v>
+      </c>
+      <c r="G187">
+        <v>0.25958974680278224</v>
+      </c>
+      <c r="H187">
+        <v>0.26194868141005961</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.2962259750360029</v>
+      </c>
+      <c r="B188">
+        <v>0.23462885818875015</v>
+      </c>
+      <c r="C188">
+        <v>0.25696432906630307</v>
+      </c>
+      <c r="D188">
+        <v>0.26366937237080418</v>
+      </c>
+      <c r="E188">
+        <v>0.26310508659950965</v>
+      </c>
+      <c r="F188">
+        <v>0.24096847236440935</v>
+      </c>
+      <c r="G188">
+        <v>0.25620627272663954</v>
+      </c>
+      <c r="H188">
+        <v>0.2581354365793086</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.31375624024538479</v>
+      </c>
+      <c r="B189">
+        <v>0.26152557978202062</v>
+      </c>
+      <c r="C189">
+        <v>0.26176731992593416</v>
+      </c>
+      <c r="D189">
+        <v>0.2630924350396357</v>
+      </c>
+      <c r="E189">
+        <v>0.26613771197047353</v>
+      </c>
+      <c r="F189">
+        <v>0.26270720106626155</v>
+      </c>
+      <c r="G189">
+        <v>0.25899136561299824</v>
+      </c>
+      <c r="H189">
+        <v>0.25804789472621825</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.29959817029628599</v>
+      </c>
+      <c r="B190">
+        <v>0.26493037228796606</v>
+      </c>
+      <c r="C190">
+        <v>0.26076411329863036</v>
+      </c>
+      <c r="D190">
+        <v>0.26283549285927521</v>
+      </c>
+      <c r="E190">
+        <v>0.26553932049310514</v>
+      </c>
+      <c r="F190">
+        <v>0.26165986226119092</v>
+      </c>
+      <c r="G190">
+        <v>0.25867836459994692</v>
+      </c>
+      <c r="H190">
+        <v>0.26111641755464782</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.31751271955113025</v>
+      </c>
+      <c r="B191">
+        <v>0.26100837221454737</v>
+      </c>
+      <c r="C191">
+        <v>0.26076533649386513</v>
+      </c>
+      <c r="D191">
+        <v>0.281585572975661</v>
+      </c>
+      <c r="E191">
+        <v>0.26689117425478337</v>
+      </c>
+      <c r="F191">
+        <v>0.2627982539947844</v>
+      </c>
+      <c r="G191">
+        <v>0.25744161903242285</v>
+      </c>
+      <c r="H191">
+        <v>0.25983813850912291</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.31520372450769646</v>
+      </c>
+      <c r="B192">
+        <v>0.26707950123501617</v>
+      </c>
+      <c r="C192">
+        <v>0.26397310618012326</v>
+      </c>
+      <c r="D192">
+        <v>0.31056167663140177</v>
+      </c>
+      <c r="E192">
+        <v>0.27045643877034792</v>
+      </c>
+      <c r="F192">
+        <v>0.26498037870318608</v>
+      </c>
+      <c r="G192">
+        <v>0.26007806906016834</v>
+      </c>
+      <c r="H192">
+        <v>0.26096415634075482</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.29785010005676682</v>
+      </c>
+      <c r="B193">
+        <v>0.26306564269041988</v>
+      </c>
+      <c r="C193">
+        <v>0.26228204714563996</v>
+      </c>
+      <c r="D193">
+        <v>0.26655094647831107</v>
+      </c>
+      <c r="E193">
+        <v>0.26811740862527017</v>
+      </c>
+      <c r="F193">
+        <v>0.26402306072808529</v>
+      </c>
+      <c r="G193">
+        <v>0.2577892499724162</v>
+      </c>
+      <c r="H193">
+        <v>0.26126323968241455</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.30856525505425592</v>
+      </c>
+      <c r="B194">
+        <v>0.2629509123318155</v>
+      </c>
+      <c r="C194">
+        <v>0.26142844573461088</v>
+      </c>
+      <c r="D194">
+        <v>0.2683596904493239</v>
+      </c>
+      <c r="E194">
+        <v>0.26524596573517567</v>
+      </c>
+      <c r="F194">
+        <v>0.26571072401199075</v>
+      </c>
+      <c r="G194">
+        <v>0.26127107174958564</v>
+      </c>
+      <c r="H194">
+        <v>0.26109931943886705</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.3150767632818321</v>
+      </c>
+      <c r="B195">
+        <v>0.26658832510143288</v>
+      </c>
+      <c r="C195">
+        <v>0.26668233710683148</v>
+      </c>
+      <c r="D195">
+        <v>0.26554365673346175</v>
+      </c>
+      <c r="E195">
+        <v>0.26964254584895914</v>
+      </c>
+      <c r="F195">
+        <v>0.26327716017934472</v>
+      </c>
+      <c r="G195">
+        <v>0.26043969470669037</v>
+      </c>
+      <c r="H195">
+        <v>0.26223266203173617</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.32147665602724551</v>
+      </c>
+      <c r="B196">
+        <v>0.27105024512308895</v>
+      </c>
+      <c r="C196">
+        <v>0.27113211893858963</v>
+      </c>
+      <c r="D196">
+        <v>0.27152859724172684</v>
+      </c>
+      <c r="E196">
+        <v>0.27655357154082938</v>
+      </c>
+      <c r="F196">
+        <v>0.26707339338003144</v>
+      </c>
+      <c r="G196">
+        <v>0.26326226490775961</v>
+      </c>
+      <c r="H196">
+        <v>0.26228641356810328</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.31466031543441286</v>
+      </c>
+      <c r="B197">
+        <v>0.26843913816256276</v>
+      </c>
+      <c r="C197">
+        <v>0.26841135889135448</v>
+      </c>
+      <c r="D197">
+        <v>0.26733674265638563</v>
+      </c>
+      <c r="E197">
+        <v>0.27317427365658919</v>
+      </c>
+      <c r="F197">
+        <v>0.26823103438670154</v>
+      </c>
+      <c r="G197">
+        <v>0.26501183198623307</v>
+      </c>
+      <c r="H197">
+        <v>0.26376410771211894</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.28162332254129052</v>
+      </c>
+      <c r="B198">
+        <v>0.2634529237824027</v>
+      </c>
+      <c r="C198">
+        <v>0.2637110573919601</v>
+      </c>
+      <c r="D198">
+        <v>0.260713686023826</v>
+      </c>
+      <c r="E198">
+        <v>0.26626844623870172</v>
+      </c>
+      <c r="F198">
+        <v>0.26291255111883804</v>
+      </c>
+      <c r="G198">
+        <v>0.25712821703799094</v>
+      </c>
+      <c r="H198">
+        <v>0.25922023355786133</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.31281158131847075</v>
+      </c>
+      <c r="B199">
+        <v>0.26250935843682133</v>
+      </c>
+      <c r="C199">
+        <v>0.26284271808755105</v>
+      </c>
+      <c r="D199">
+        <v>0.26380764855058192</v>
+      </c>
+      <c r="E199">
+        <v>0.2646173298243652</v>
+      </c>
+      <c r="F199">
+        <v>0.26277054518334092</v>
+      </c>
+      <c r="G199">
+        <v>0.26169566648713966</v>
+      </c>
+      <c r="H199">
+        <v>0.26065536304362608</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.31717814523735782</v>
+      </c>
+      <c r="B200">
+        <v>0.26605370929017091</v>
+      </c>
+      <c r="C200">
+        <v>0.26404485018282453</v>
+      </c>
+      <c r="D200">
+        <v>0.29994708280295584</v>
+      </c>
+      <c r="E200">
+        <v>0.27108392263830555</v>
+      </c>
+      <c r="F200">
+        <v>0.26316120687109168</v>
+      </c>
+      <c r="G200">
+        <v>0.26154252667467998</v>
+      </c>
+      <c r="H200">
+        <v>0.26097377573393249</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.31169611142221804</v>
+      </c>
+      <c r="B201">
+        <v>0.26801551878376706</v>
+      </c>
+      <c r="C201">
+        <v>0.26521131115824176</v>
+      </c>
+      <c r="D201">
+        <v>0.2653914599629566</v>
+      </c>
+      <c r="E201">
+        <v>0.27182837984267649</v>
+      </c>
+      <c r="F201">
+        <v>0.26532025936326648</v>
+      </c>
+      <c r="G201">
+        <v>0.26464896684178807</v>
+      </c>
+      <c r="H201">
+        <v>0.25928952786378251</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.31015215035501265</v>
+      </c>
+      <c r="B202">
+        <v>0.26207769766928918</v>
+      </c>
+      <c r="C202">
+        <v>0.26124334523621656</v>
+      </c>
+      <c r="D202">
+        <v>0.25843233737123283</v>
+      </c>
+      <c r="E202">
+        <v>0.26105407089530303</v>
+      </c>
+      <c r="F202">
+        <v>0.25890201086724285</v>
+      </c>
+      <c r="G202">
+        <v>0.2568995720348648</v>
+      </c>
+      <c r="H202">
+        <v>0.25910675476424383</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.32495150864508471</v>
+      </c>
+      <c r="B203">
+        <v>0.26558189869098903</v>
+      </c>
+      <c r="C203">
+        <v>0.26650651823761723</v>
+      </c>
+      <c r="D203">
+        <v>0.26327751336597599</v>
+      </c>
+      <c r="E203">
+        <v>0.2691435953555954</v>
+      </c>
+      <c r="F203">
+        <v>0.26174325281712074</v>
+      </c>
+      <c r="G203">
+        <v>0.26269530285369364</v>
+      </c>
+      <c r="H203">
+        <v>0.25997150954077225</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.30270170544060027</v>
+      </c>
+      <c r="B204">
+        <v>0.26186586203288087</v>
+      </c>
+      <c r="C204">
+        <v>0.25949617115758472</v>
+      </c>
+      <c r="D204">
+        <v>0.26051238379018604</v>
+      </c>
+      <c r="E204">
+        <v>0.26474140183678918</v>
+      </c>
+      <c r="F204">
+        <v>0.26045580356286446</v>
+      </c>
+      <c r="G204">
+        <v>0.25739868187198878</v>
+      </c>
+      <c r="H204">
+        <v>0.26135117507055733</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.31890618785308927</v>
+      </c>
+      <c r="B205">
+        <v>0.26152863323710313</v>
+      </c>
+      <c r="C205">
+        <v>0.26049479774426981</v>
+      </c>
+      <c r="D205">
+        <v>0.26389316141865032</v>
+      </c>
+      <c r="E205">
+        <v>0.26198457655445079</v>
+      </c>
+      <c r="F205">
+        <v>0.26162646320981187</v>
+      </c>
+      <c r="G205">
+        <v>0.26228685438571037</v>
+      </c>
+      <c r="H205">
+        <v>0.26108237971237758</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.25674393654183469</v>
+      </c>
+      <c r="B206">
+        <v>0.25719971249159645</v>
+      </c>
+      <c r="C206">
+        <v>0.25693382612553001</v>
+      </c>
+      <c r="D206">
+        <v>0.25244045996785447</v>
+      </c>
+      <c r="E206">
+        <v>0.25639553488368744</v>
+      </c>
+      <c r="F206">
+        <v>0.25588615486168037</v>
+      </c>
+      <c r="G206">
+        <v>0.25495759799120177</v>
+      </c>
+      <c r="H206">
+        <v>0.2616264955648952</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.27757200911808283</v>
+      </c>
+      <c r="B207">
+        <v>0.2565005326196389</v>
+      </c>
+      <c r="C207">
+        <v>0.26524686082947163</v>
+      </c>
+      <c r="D207">
+        <v>0.26070590542983191</v>
+      </c>
+      <c r="E207">
+        <v>0.27964866947826839</v>
+      </c>
+      <c r="F207">
+        <v>0.24731341286320249</v>
+      </c>
+      <c r="G207">
+        <v>0.26986241460629173</v>
+      </c>
+      <c r="H207">
+        <v>0.29739070760709158</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.26266846176822944</v>
+      </c>
+      <c r="B208">
+        <v>0.26234367044615559</v>
+      </c>
+      <c r="C208">
+        <v>0.25930329442173877</v>
+      </c>
+      <c r="D208">
+        <v>0.25373277022939777</v>
+      </c>
+      <c r="E208">
+        <v>0.25738194928471309</v>
+      </c>
+      <c r="F208">
+        <v>0.25545516622654096</v>
+      </c>
+      <c r="G208">
+        <v>0.25417090356325639</v>
+      </c>
+      <c r="H208">
+        <v>0.26001914278569371</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.26768430713690194</v>
+      </c>
+      <c r="B209">
+        <v>0.21967244024949434</v>
+      </c>
+      <c r="C209">
+        <v>0.24933922847531953</v>
+      </c>
+      <c r="D209">
+        <v>0.25328620643542554</v>
+      </c>
+      <c r="E209">
+        <v>0.2519727170281712</v>
+      </c>
+      <c r="F209">
+        <v>0.23223510042583989</v>
+      </c>
+      <c r="G209">
+        <v>0.25109773885854142</v>
+      </c>
+      <c r="H209">
+        <v>0.25625543995352135</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.26322066750476741</v>
+      </c>
+      <c r="B210">
+        <v>0.25287737980681757</v>
+      </c>
+      <c r="C210">
+        <v>0.25276916802245897</v>
+      </c>
+      <c r="D210">
+        <v>0.2525005083195126</v>
+      </c>
+      <c r="E210">
+        <v>0.25452055659485179</v>
+      </c>
+      <c r="F210">
+        <v>0.2544556463256647</v>
+      </c>
+      <c r="G210">
+        <v>0.25275245491386689</v>
+      </c>
+      <c r="H210">
+        <v>0.25618119748873897</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.25065046994382406</v>
+      </c>
+      <c r="B211">
+        <v>0.23755755896518355</v>
+      </c>
+      <c r="C211">
+        <v>0.25114348291291111</v>
+      </c>
+      <c r="D211">
+        <v>0.2835020483961691</v>
+      </c>
+      <c r="E211">
+        <v>0.26134711497967111</v>
+      </c>
+      <c r="F211">
+        <v>0.21607788925230823</v>
+      </c>
+      <c r="G211">
+        <v>0.25554487184806601</v>
+      </c>
+      <c r="H211">
+        <v>0.26936719806790665</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.2698325930447466</v>
+      </c>
+      <c r="B212">
+        <v>0.26287114251467514</v>
+      </c>
+      <c r="C212">
+        <v>0.26083324510440264</v>
+      </c>
+      <c r="D212">
+        <v>0.26159763156529581</v>
+      </c>
+      <c r="E212">
+        <v>0.26728055507973919</v>
+      </c>
+      <c r="F212">
+        <v>0.26161872096067851</v>
+      </c>
+      <c r="G212">
+        <v>0.25802338279704717</v>
+      </c>
+      <c r="H212">
+        <v>0.26794219065239505</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.2599985240965566</v>
+      </c>
+      <c r="B213">
+        <v>0.26053826960339127</v>
+      </c>
+      <c r="C213">
+        <v>0.26330128974643435</v>
+      </c>
+      <c r="D213">
+        <v>0.25390481863789155</v>
+      </c>
+      <c r="E213">
+        <v>0.26040962130024259</v>
+      </c>
+      <c r="F213">
+        <v>0.26082972030340007</v>
+      </c>
+      <c r="G213">
+        <v>0.25898284376815245</v>
+      </c>
+      <c r="H213">
+        <v>0.26767036402608452</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.25763656773838584</v>
+      </c>
+      <c r="B214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H214">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.26450084156862819</v>
+      </c>
+      <c r="B215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H215">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.25708127680000292</v>
+      </c>
+      <c r="B216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H216">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.25432790843097292</v>
+      </c>
+      <c r="B217">
+        <v>0.26107836948783303</v>
+      </c>
+      <c r="C217">
+        <v>0.26452867744089503</v>
+      </c>
+      <c r="D217">
+        <v>0.25571851540089219</v>
+      </c>
+      <c r="E217">
+        <v>0.26231123919617305</v>
+      </c>
+      <c r="F217">
+        <v>0.2558896825012732</v>
+      </c>
+      <c r="G217">
+        <v>0.258408859411631</v>
+      </c>
+      <c r="H217">
+        <v>0.25670709477776427</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.25545402068975048</v>
+      </c>
+      <c r="B218">
+        <v>0.26030076591692974</v>
+      </c>
+      <c r="C218">
+        <v>0.26174425456681405</v>
+      </c>
+      <c r="D218">
+        <v>0.25815010134113148</v>
+      </c>
+      <c r="E218">
+        <v>0.26360802892064661</v>
+      </c>
+      <c r="F218">
+        <v>0.25729802509599448</v>
+      </c>
+      <c r="G218">
+        <v>0.25813578095358314</v>
+      </c>
+      <c r="H218">
+        <v>0.25700858572897733</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.25642783492673177</v>
+      </c>
+      <c r="B219">
+        <v>0.26060289793129793</v>
+      </c>
+      <c r="C219">
+        <v>0.26246052914025186</v>
+      </c>
+      <c r="D219">
+        <v>0.25409364345669644</v>
+      </c>
+      <c r="E219">
+        <v>0.26233837876715022</v>
+      </c>
+      <c r="F219">
+        <v>0.25566164952160786</v>
+      </c>
+      <c r="G219">
+        <v>0.25841104110014645</v>
+      </c>
+      <c r="H219">
+        <v>0.25675978818103634</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.25755931003613741</v>
+      </c>
+      <c r="B220">
+        <v>0.26426134230600251</v>
+      </c>
+      <c r="C220">
+        <v>0.26326145486827535</v>
+      </c>
+      <c r="D220">
+        <v>0.26018625521908456</v>
+      </c>
+      <c r="E220">
+        <v>0.26489782276968377</v>
+      </c>
+      <c r="F220">
+        <v>0.25592733819029523</v>
+      </c>
+      <c r="G220">
+        <v>0.25633394034386386</v>
+      </c>
+      <c r="H220">
+        <v>0.25820308307395445</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.25418921692179264</v>
+      </c>
+      <c r="B221">
+        <v>0.25783910353744249</v>
+      </c>
+      <c r="C221">
+        <v>0.25585031627536642</v>
+      </c>
+      <c r="D221">
+        <v>0.2549857166971003</v>
+      </c>
+      <c r="E221">
+        <v>0.25643385589572099</v>
+      </c>
+      <c r="F221">
+        <v>0.25456436353921208</v>
+      </c>
+      <c r="G221">
+        <v>0.25538815066544451</v>
+      </c>
+      <c r="H221">
+        <v>0.25361267019111217</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.25265338980327667</v>
+      </c>
+      <c r="B222">
+        <v>0.25901352389854199</v>
+      </c>
+      <c r="C222">
+        <v>0.2613163123003413</v>
+      </c>
+      <c r="D222">
+        <v>0.26077522143526843</v>
+      </c>
+      <c r="E222">
+        <v>0.26045063532729346</v>
+      </c>
+      <c r="F222">
+        <v>0.25723415589504306</v>
+      </c>
+      <c r="G222">
+        <v>0.25924624568165111</v>
+      </c>
+      <c r="H222">
+        <v>0.25750166348026426</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.25404801130238347</v>
+      </c>
+      <c r="B223">
+        <v>0.26083725444137629</v>
+      </c>
+      <c r="C223">
+        <v>0.26078787171767398</v>
+      </c>
+      <c r="D223">
+        <v>0.25812333094263784</v>
+      </c>
+      <c r="E223">
+        <v>0.26027049870185515</v>
+      </c>
+      <c r="F223">
+        <v>0.25674359705322669</v>
+      </c>
+      <c r="G223">
+        <v>0.25799866991885989</v>
+      </c>
+      <c r="H223">
+        <v>0.25525584479721464</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.25636665821794802</v>
+      </c>
+      <c r="B224">
+        <v>0.22608354228040017</v>
+      </c>
+      <c r="C224">
+        <v>0.25524311791086629</v>
+      </c>
+      <c r="D224">
+        <v>0.25344488517289904</v>
+      </c>
+      <c r="E224">
+        <v>0.26268420591614949</v>
+      </c>
+      <c r="F224">
+        <v>0.23161999252246215</v>
+      </c>
+      <c r="G224">
+        <v>0.25313813543237296</v>
+      </c>
+      <c r="H224">
+        <v>0.25730083066872672</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.25735989821464889</v>
+      </c>
+      <c r="B225">
+        <v>0.25552897580273276</v>
+      </c>
+      <c r="C225">
+        <v>0.25725970664677777</v>
+      </c>
+      <c r="D225">
+        <v>0.25193668903794569</v>
+      </c>
+      <c r="E225">
+        <v>0.25731741998436625</v>
+      </c>
+      <c r="F225">
+        <v>0.2527522737764783</v>
+      </c>
+      <c r="G225">
+        <v>0.25165173117628614</v>
+      </c>
+      <c r="H225">
+        <v>0.25674316140419984</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4974C54B-16F2-4919-90FD-8D04F3522ADD}">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.27929882509720755</v>
+        <v>0.31086478795884886</v>
       </c>
       <c r="B1">
-        <v>0.26158551574257166</v>
+        <v>0.27155688910404235</v>
       </c>
       <c r="C1">
-        <v>0.26224458055345978</v>
+        <v>0.26196577839503954</v>
       </c>
       <c r="D1">
-        <v>0.25395335569412486</v>
+        <v>0.25452707861107149</v>
       </c>
       <c r="E1">
-        <v>0.25678157453050621</v>
+        <v>0.25628716380081784</v>
       </c>
       <c r="F1">
-        <v>0.25518658103080033</v>
+        <v>0.25620202125330566</v>
       </c>
       <c r="G1">
-        <v>0.27100097812793028</v>
+        <v>0.2556001711573847</v>
       </c>
       <c r="H1">
-        <v>0.26595337317134726</v>
+        <v>0.26524558797884962</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -5080,57 +6968,57 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.27043374326331321</v>
+        <v>0.25172507818708884</v>
       </c>
       <c r="B2">
-        <v>0.29345461504677256</v>
+        <v>0.25154252848719766</v>
       </c>
       <c r="C2">
-        <v>0.25914557993127968</v>
+        <v>0.25217898534448774</v>
       </c>
       <c r="D2">
-        <v>0.25708468355843073</v>
+        <v>0.61184331388433233</v>
       </c>
       <c r="E2">
-        <v>0.26060209890787162</v>
+        <v>0.25084333777687212</v>
       </c>
       <c r="F2">
-        <v>0.25350631061986867</v>
+        <v>0.25001763968625429</v>
       </c>
       <c r="G2">
-        <v>0.25671876175018377</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H2">
-        <v>0.26314037921800743</v>
+        <v>0.25028744016113097</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.26733089795977344</v>
+        <v>0.25739412759624836</v>
       </c>
       <c r="B3">
-        <v>0.26401731208273965</v>
+        <v>0.25602887062785668</v>
       </c>
       <c r="C3">
-        <v>0.26444623365697262</v>
+        <v>0.25638778456801004</v>
       </c>
       <c r="D3">
-        <v>0.25683001977274822</v>
+        <v>0.254103447257431</v>
       </c>
       <c r="E3">
-        <v>0.27059175053882284</v>
+        <v>0.26287947718651877</v>
       </c>
       <c r="F3">
-        <v>0.26354515618393876</v>
+        <v>0.25416065341109179</v>
       </c>
       <c r="G3">
-        <v>0.2622662388217008</v>
+        <v>0.25624704366274415</v>
       </c>
       <c r="H3">
-        <v>0.2650194736691987</v>
+        <v>0.254892585435258</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5138,86 +7026,86 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.27759945642187256</v>
+        <v>0.25418921692179264</v>
       </c>
       <c r="B4">
-        <v>0.26688469172561624</v>
+        <v>0.25783910353744249</v>
       </c>
       <c r="C4">
-        <v>0.2673848454500708</v>
+        <v>0.25585031627536642</v>
       </c>
       <c r="D4">
-        <v>0.2560772253277811</v>
+        <v>0.2549857166971003</v>
       </c>
       <c r="E4">
-        <v>0.27017762671407175</v>
+        <v>0.25643385589572099</v>
       </c>
       <c r="F4">
-        <v>0.26070432155565326</v>
+        <v>0.25456436353921208</v>
       </c>
       <c r="G4">
-        <v>0.25812705189632124</v>
+        <v>0.25538815066544451</v>
       </c>
       <c r="H4">
-        <v>0.2745854439341458</v>
+        <v>0.25361267019111217</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.27060725641131445</v>
+        <v>0.25628923870980541</v>
       </c>
       <c r="B5">
-        <v>0.18164180686634321</v>
+        <v>0.25616268371431489</v>
       </c>
       <c r="C5">
-        <v>0.25939130876349664</v>
+        <v>0.25823004753185602</v>
       </c>
       <c r="D5">
-        <v>0.25307837030892033</v>
+        <v>0.25094433166568036</v>
       </c>
       <c r="E5">
-        <v>0.26106958704811756</v>
+        <v>0.25440821696170951</v>
       </c>
       <c r="F5">
-        <v>0.20837877741161354</v>
+        <v>0.25378807312888285</v>
       </c>
       <c r="G5">
-        <v>0.25697674615168314</v>
+        <v>0.25302637681219492</v>
       </c>
       <c r="H5">
-        <v>0.26702041401046278</v>
+        <v>0.25485852912214491</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.25214869564858722</v>
+        <v>0.2471982978586395</v>
       </c>
       <c r="B6">
-        <v>0.25713017959458784</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="C6">
-        <v>0.25705896994692456</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="D6">
-        <v>0.25098580438104023</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="E6">
-        <v>0.25228725143098535</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="F6">
-        <v>0.25326511145099145</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="G6">
-        <v>0.25552738448494938</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H6">
-        <v>0.27892252019626335</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5225,28 +7113,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.25590915742220727</v>
+        <v>0.25405106496098306</v>
       </c>
       <c r="B7">
-        <v>0.25576687422042493</v>
+        <v>0.25380566199109045</v>
       </c>
       <c r="C7">
-        <v>0.2556945688282265</v>
+        <v>0.2548241440827384</v>
       </c>
       <c r="D7">
-        <v>0.25196029148214394</v>
+        <v>0.46801443039874008</v>
       </c>
       <c r="E7">
-        <v>0.25734662367349254</v>
+        <v>0.25419579512080009</v>
       </c>
       <c r="F7">
-        <v>0.2543806054335927</v>
+        <v>0.25220820819191975</v>
       </c>
       <c r="G7">
-        <v>0.25412263681285885</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H7">
-        <v>0.27590449396218658</v>
+        <v>0.25069496232559424</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5254,28 +7142,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.25259958201323746</v>
+        <v>0.25703602093600203</v>
       </c>
       <c r="B8">
-        <v>0.25907704252393465</v>
+        <v>0.26265305810552009</v>
       </c>
       <c r="C8">
-        <v>0.25792244359086675</v>
+        <v>0.26041540561701509</v>
       </c>
       <c r="D8">
-        <v>0.25303538841896867</v>
+        <v>0.25392794456196738</v>
       </c>
       <c r="E8">
-        <v>0.25672240614361441</v>
+        <v>0.25904269237391314</v>
       </c>
       <c r="F8">
-        <v>0.25747578409908028</v>
+        <v>0.25730999762755902</v>
       </c>
       <c r="G8">
-        <v>0.26029293022876521</v>
+        <v>0.25803763973847194</v>
       </c>
       <c r="H8">
-        <v>0.28444569063907227</v>
+        <v>0.27076140953106365</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5283,28 +7171,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.25322043499799596</v>
+        <v>0.25540725404376419</v>
       </c>
       <c r="B9">
-        <v>0.25857798175921198</v>
+        <v>0.25595823433146192</v>
       </c>
       <c r="C9">
-        <v>0.25672966482791693</v>
+        <v>0.25897501843126602</v>
       </c>
       <c r="D9">
-        <v>0.25280721126244959</v>
+        <v>0.25636275359363297</v>
       </c>
       <c r="E9">
-        <v>0.25417526714388983</v>
+        <v>0.25967440413512621</v>
       </c>
       <c r="F9">
-        <v>0.25383386933862351</v>
+        <v>0.25659056042317718</v>
       </c>
       <c r="G9">
-        <v>0.25437170613737248</v>
+        <v>0.25708632692731509</v>
       </c>
       <c r="H9">
-        <v>0.28871457969114622</v>
+        <v>0.25469400073327636</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5312,28 +7200,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.25212727491175946</v>
+        <v>0.25540653388487528</v>
       </c>
       <c r="B10">
-        <v>0.25478432698269893</v>
+        <v>0.25919908416610277</v>
       </c>
       <c r="C10">
-        <v>0.25400202868011162</v>
+        <v>0.25830390193696195</v>
       </c>
       <c r="D10">
-        <v>0.25083399866625467</v>
+        <v>0.25550998314417994</v>
       </c>
       <c r="E10">
-        <v>0.2533060559001532</v>
+        <v>0.25868724000823279</v>
       </c>
       <c r="F10">
-        <v>0.2514951684413067</v>
+        <v>0.25356273534840584</v>
       </c>
       <c r="G10">
-        <v>0.25125973964945447</v>
+        <v>0.25521090346237446</v>
       </c>
       <c r="H10">
-        <v>0.25143724673511825</v>
+        <v>0.25657605912495229</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5341,28 +7229,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.25108015255659655</v>
+        <v>0.2693473414909115</v>
       </c>
       <c r="B11">
-        <v>0.25169792862908613</v>
+        <v>0.25456278844091007</v>
       </c>
       <c r="C11">
-        <v>0.25196556984077689</v>
+        <v>0.25890541789397342</v>
       </c>
       <c r="D11">
-        <v>0.25275102371867214</v>
+        <v>0.25322959831380998</v>
       </c>
       <c r="E11">
-        <v>0.25187806622034326</v>
+        <v>0.25723275464099071</v>
       </c>
       <c r="F11">
-        <v>0.25155163571753647</v>
+        <v>0.25433957492668025</v>
       </c>
       <c r="G11">
-        <v>0.2520752216922052</v>
+        <v>0.25516494122746614</v>
       </c>
       <c r="H11">
-        <v>0.25130649471035588</v>
+        <v>0.25777208343187197</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5370,115 +7258,115 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.25035161682103874</v>
+        <v>0.25179672812933607</v>
       </c>
       <c r="B12">
-        <v>0.25347889866146928</v>
+        <v>0.25066385195856006</v>
       </c>
       <c r="C12">
-        <v>0.25249793590379016</v>
+        <v>0.25511989771943266</v>
       </c>
       <c r="D12">
-        <v>0.25138459437962418</v>
+        <v>0.25196717770304417</v>
       </c>
       <c r="E12">
-        <v>0.25256999231757454</v>
+        <v>0.25385733033851748</v>
       </c>
       <c r="F12">
-        <v>0.25178206044344453</v>
+        <v>0.25252806007122225</v>
       </c>
       <c r="G12">
-        <v>0.2513374307990906</v>
+        <v>0.25483563329860076</v>
       </c>
       <c r="H12">
-        <v>0.25166367832313674</v>
+        <v>0.25220548931432551</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.25935435442712662</v>
+        <v>0.26468673421617533</v>
       </c>
       <c r="B13">
-        <v>0.26934160158056231</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="C13">
-        <v>0.25881319837541578</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="D13">
-        <v>0.25261095714440179</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="E13">
-        <v>0.2539537903819799</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="F13">
-        <v>0.25382504710014625</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="G13">
-        <v>0.25755535135711616</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="H13">
-        <v>0.2630553687517504</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.25570016184588196</v>
+        <v>0.254431696785965</v>
       </c>
       <c r="B14">
-        <v>0.25510081652012301</v>
+        <v>0.25566621633301206</v>
       </c>
       <c r="C14">
-        <v>0.25206764253462699</v>
+        <v>0.256377982642434</v>
       </c>
       <c r="D14">
-        <v>0.25128597565094568</v>
+        <v>0.25454556789133892</v>
       </c>
       <c r="E14">
-        <v>0.25219156613211524</v>
+        <v>0.25423628452567537</v>
       </c>
       <c r="F14">
-        <v>0.2529564051857785</v>
+        <v>0.25599460638150978</v>
       </c>
       <c r="G14">
-        <v>0.25291546098980766</v>
+        <v>0.25517424721639104</v>
       </c>
       <c r="H14">
-        <v>0.25959070507684329</v>
+        <v>0.25364601126547354</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.25614909241155936</v>
+        <v>0.26302340739981772</v>
       </c>
       <c r="B15">
-        <v>0.26333621641245814</v>
+        <v>0.27267253871775993</v>
       </c>
       <c r="C15">
-        <v>0.2611425423380252</v>
+        <v>0.26145924533785331</v>
       </c>
       <c r="D15">
-        <v>0.25311941929252302</v>
+        <v>0.25621555798936713</v>
       </c>
       <c r="E15">
-        <v>0.25841495145197935</v>
+        <v>0.26650595525631299</v>
       </c>
       <c r="F15">
-        <v>0.2542968978047262</v>
+        <v>0.25975159444359891</v>
       </c>
       <c r="G15">
-        <v>0.25991361768293508</v>
+        <v>0.26175722193415701</v>
       </c>
       <c r="H15">
-        <v>0.26378688562113223</v>
+        <v>0.28872065073949427</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5486,28 +7374,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.25490689007627332</v>
+        <v>0.30856525505425592</v>
       </c>
       <c r="B16">
-        <v>0.26256322741380506</v>
+        <v>0.2629509123318155</v>
       </c>
       <c r="C16">
-        <v>0.26192136322870097</v>
+        <v>0.26142844573461088</v>
       </c>
       <c r="D16">
-        <v>0.25998581349315991</v>
+        <v>0.2683596904493239</v>
       </c>
       <c r="E16">
-        <v>0.26476312815203301</v>
+        <v>0.26524596573517567</v>
       </c>
       <c r="F16">
-        <v>0.25610604891318145</v>
+        <v>0.26571072401199075</v>
       </c>
       <c r="G16">
-        <v>0.26011002206483602</v>
+        <v>0.26127107174958564</v>
       </c>
       <c r="H16">
-        <v>0.25613786729474403</v>
+        <v>0.26109931943886705</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5515,115 +7403,115 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.25460904812556301</v>
+        <v>0.36841223018008407</v>
       </c>
       <c r="B17">
-        <v>0.26505781800650535</v>
+        <v>0.26552397045802434</v>
       </c>
       <c r="C17">
-        <v>0.26617792978232657</v>
+        <v>0.26458027492086894</v>
       </c>
       <c r="D17">
-        <v>0.25897053366787637</v>
+        <v>0.258993877622268</v>
       </c>
       <c r="E17">
-        <v>0.26469354799467681</v>
+        <v>0.26776625124275821</v>
       </c>
       <c r="F17">
-        <v>0.25598491080422831</v>
+        <v>0.2634400683914318</v>
       </c>
       <c r="G17">
-        <v>0.25785983829674519</v>
+        <v>0.25792956309427262</v>
       </c>
       <c r="H17">
-        <v>0.25662477154928515</v>
+        <v>0.26387895334637768</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.25558519177625899</v>
+        <v>0.25708127680000292</v>
       </c>
       <c r="B18">
-        <v>0.2559932756378534</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="C18">
-        <v>0.25712982129687018</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="D18">
-        <v>0.25714725496271457</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="E18">
-        <v>0.25519771618779041</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="F18">
-        <v>0.25400132436651451</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="G18">
-        <v>0.25591086530461254</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="H18">
-        <v>0.25579398874817338</v>
+        <v>0.24790052512673627</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.25674393654183469</v>
+        <v>0.25327161619618804</v>
       </c>
       <c r="B19">
-        <v>0.25719971249159645</v>
+        <v>0.25546134337960502</v>
       </c>
       <c r="C19">
-        <v>0.25693382612553001</v>
+        <v>0.25307055299245629</v>
       </c>
       <c r="D19">
-        <v>0.25244045996785447</v>
+        <v>0.25049315211903278</v>
       </c>
       <c r="E19">
-        <v>0.25639553488368744</v>
+        <v>0.25186349647359985</v>
       </c>
       <c r="F19">
-        <v>0.25588615486168037</v>
+        <v>0.2535947910214838</v>
       </c>
       <c r="G19">
-        <v>0.25495759799120177</v>
+        <v>0.25338771543135591</v>
       </c>
       <c r="H19">
-        <v>0.2616264955648952</v>
+        <v>0.25679964553120876</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.27757200911808283</v>
+        <v>0.26133251440448452</v>
       </c>
       <c r="B20">
-        <v>0.2565005326196389</v>
+        <v>0.25809011108908503</v>
       </c>
       <c r="C20">
-        <v>0.26524686082947163</v>
+        <v>0.25501107257717592</v>
       </c>
       <c r="D20">
-        <v>0.26070590542983191</v>
+        <v>0.2512141255087611</v>
       </c>
       <c r="E20">
-        <v>0.27964866947826839</v>
+        <v>0.25575348656914593</v>
       </c>
       <c r="F20">
-        <v>0.24731341286320249</v>
+        <v>0.25544340540109162</v>
       </c>
       <c r="G20">
-        <v>0.26986241460629173</v>
+        <v>0.25695515421125431</v>
       </c>
       <c r="H20">
-        <v>0.29739070760709158</v>
+        <v>0.26275637579111039</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -5631,28 +7519,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.26266846176822944</v>
+        <v>0.25571325835126701</v>
       </c>
       <c r="B21">
-        <v>0.26234367044615559</v>
+        <v>0.26126675957103673</v>
       </c>
       <c r="C21">
-        <v>0.25930329442173877</v>
+        <v>0.2567803249492483</v>
       </c>
       <c r="D21">
-        <v>0.25373277022939777</v>
+        <v>0.25534211897233022</v>
       </c>
       <c r="E21">
-        <v>0.25738194928471309</v>
+        <v>0.25477980531471273</v>
       </c>
       <c r="F21">
-        <v>0.25545516622654096</v>
+        <v>0.26135319271207652</v>
       </c>
       <c r="G21">
-        <v>0.25417090356325639</v>
+        <v>0.25630558235040607</v>
       </c>
       <c r="H21">
-        <v>0.26001914278569371</v>
+        <v>0.26695162245965093</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5660,28 +7548,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.26768430713690194</v>
+        <v>0.26450084156862819</v>
       </c>
       <c r="B22">
-        <v>0.21967244024949434</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="C22">
-        <v>0.24933922847531953</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="D22">
-        <v>0.25328620643542554</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="E22">
-        <v>0.2519727170281712</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="F22">
-        <v>0.23223510042583989</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="G22">
-        <v>0.25109773885854142</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H22">
-        <v>0.25625543995352135</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5689,57 +7577,57 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.26322066750476741</v>
+        <v>0.27962352153674314</v>
       </c>
       <c r="B23">
-        <v>0.25287737980681757</v>
+        <v>0.22722164298629574</v>
       </c>
       <c r="C23">
-        <v>0.25276916802245897</v>
+        <v>0.26023042431548377</v>
       </c>
       <c r="D23">
-        <v>0.2525005083195126</v>
+        <v>0.25413683177796581</v>
       </c>
       <c r="E23">
-        <v>0.25452055659485179</v>
+        <v>0.26344362822610545</v>
       </c>
       <c r="F23">
-        <v>0.2544556463256647</v>
+        <v>0.24781243682841383</v>
       </c>
       <c r="G23">
-        <v>0.25275245491386689</v>
+        <v>0.25574273572321421</v>
       </c>
       <c r="H23">
-        <v>0.25618119748873897</v>
+        <v>0.26975452259301685</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.25065046994382406</v>
+        <v>0.26772353335668236</v>
       </c>
       <c r="B24">
-        <v>0.23755755896518355</v>
+        <v>0.25630319774722066</v>
       </c>
       <c r="C24">
-        <v>0.25114348291291111</v>
+        <v>0.25501932914546105</v>
       </c>
       <c r="D24">
-        <v>0.2835020483961691</v>
+        <v>0.25458954973896575</v>
       </c>
       <c r="E24">
-        <v>0.26134711497967111</v>
+        <v>0.25504861208305862</v>
       </c>
       <c r="F24">
-        <v>0.21607788925230823</v>
+        <v>0.25249339200141546</v>
       </c>
       <c r="G24">
-        <v>0.25554487184806601</v>
+        <v>0.25432755548938218</v>
       </c>
       <c r="H24">
-        <v>0.26936719806790665</v>
+        <v>0.25611475312742576</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5747,144 +7635,144 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.2698325930447466</v>
+        <v>0.25753518018431887</v>
       </c>
       <c r="B25">
-        <v>0.26287114251467514</v>
+        <v>0.26145601290662429</v>
       </c>
       <c r="C25">
-        <v>0.26083324510440264</v>
+        <v>0.25999144497539839</v>
       </c>
       <c r="D25">
-        <v>0.26159763156529581</v>
+        <v>0.25882816696104854</v>
       </c>
       <c r="E25">
-        <v>0.26728055507973919</v>
+        <v>0.26651886924342527</v>
       </c>
       <c r="F25">
-        <v>0.26161872096067851</v>
+        <v>0.25927423196511978</v>
       </c>
       <c r="G25">
-        <v>0.25802338279704717</v>
+        <v>0.26034409543650233</v>
       </c>
       <c r="H25">
-        <v>0.26794219065239505</v>
+        <v>0.25867636121659682</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.2599985240965566</v>
+        <v>0.34032500782376629</v>
       </c>
       <c r="B26">
-        <v>0.26053826960339127</v>
+        <v>0.26281527392532522</v>
       </c>
       <c r="C26">
-        <v>0.26330128974643435</v>
+        <v>0.25809282206699569</v>
       </c>
       <c r="D26">
-        <v>0.25390481863789155</v>
+        <v>0.25431293476776445</v>
       </c>
       <c r="E26">
-        <v>0.26040962130024259</v>
+        <v>0.25523215870488097</v>
       </c>
       <c r="F26">
-        <v>0.26082972030340007</v>
+        <v>0.25353742110428251</v>
       </c>
       <c r="G26">
-        <v>0.25898284376815245</v>
+        <v>0.25684718221696368</v>
       </c>
       <c r="H26">
-        <v>0.26767036402608452</v>
+        <v>0.25793316051754012</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.25763656773838584</v>
+        <v>0.27485378463315124</v>
       </c>
       <c r="B27">
-        <v>0.24790052512673627</v>
+        <v>0.26712965259560228</v>
       </c>
       <c r="C27">
-        <v>0.24790052512673627</v>
+        <v>0.26436272565608604</v>
       </c>
       <c r="D27">
-        <v>0.24790052512673627</v>
+        <v>0.26345874084983578</v>
       </c>
       <c r="E27">
-        <v>0.24790052512673627</v>
+        <v>0.26831324715276228</v>
       </c>
       <c r="F27">
-        <v>0.24790052512673627</v>
+        <v>0.2573715018680548</v>
       </c>
       <c r="G27">
-        <v>0.24790052512673627</v>
+        <v>0.25840027143903649</v>
       </c>
       <c r="H27">
-        <v>0.24790052512673627</v>
+        <v>0.25980292571466479</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.26450084156862819</v>
+        <v>0.26627683573644223</v>
       </c>
       <c r="B28">
-        <v>0.24790052512673624</v>
+        <v>0.29587641076564647</v>
       </c>
       <c r="C28">
-        <v>0.24790052512673624</v>
+        <v>0.29851940644792213</v>
       </c>
       <c r="D28">
-        <v>0.24790052512673624</v>
+        <v>0.25989493556005311</v>
       </c>
       <c r="E28">
-        <v>0.24790052512673624</v>
+        <v>0.28391604651429153</v>
       </c>
       <c r="F28">
-        <v>0.24790052512673624</v>
+        <v>0.28537270379363439</v>
       </c>
       <c r="G28">
-        <v>0.24790052512673624</v>
+        <v>0.26419940977564493</v>
       </c>
       <c r="H28">
-        <v>0.24790052512673624</v>
+        <v>0.2936110976228406</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.25708127680000292</v>
+        <v>0.25734072437640038</v>
       </c>
       <c r="B29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="C29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="D29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="E29">
-        <v>0.24790052512673627</v>
+        <v>0.96255916258134777</v>
       </c>
       <c r="F29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="G29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H29">
-        <v>0.24790052512673627</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5892,28 +7780,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.25432790843097292</v>
+        <v>0.25701091851655872</v>
       </c>
       <c r="B30">
-        <v>0.26107836948783303</v>
+        <v>0.25877800759576192</v>
       </c>
       <c r="C30">
-        <v>0.26452867744089503</v>
+        <v>0.26103637919523498</v>
       </c>
       <c r="D30">
-        <v>0.25571851540089219</v>
+        <v>0.2557662093491197</v>
       </c>
       <c r="E30">
-        <v>0.26231123919617305</v>
+        <v>0.2591281639171053</v>
       </c>
       <c r="F30">
-        <v>0.2558896825012732</v>
+        <v>0.25438144549558839</v>
       </c>
       <c r="G30">
-        <v>0.258408859411631</v>
+        <v>0.25798147017285056</v>
       </c>
       <c r="H30">
-        <v>0.25670709477776427</v>
+        <v>0.25568026846185032</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5921,28 +7809,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.25545402068975048</v>
+        <v>0.2514765300321436</v>
       </c>
       <c r="B31">
-        <v>0.26030076591692974</v>
+        <v>0.25088397139672486</v>
       </c>
       <c r="C31">
-        <v>0.26174425456681405</v>
+        <v>0.25210504465960115</v>
       </c>
       <c r="D31">
-        <v>0.25815010134113148</v>
+        <v>0.24974737538469585</v>
       </c>
       <c r="E31">
-        <v>0.26360802892064661</v>
+        <v>0.25099717754810308</v>
       </c>
       <c r="F31">
-        <v>0.25729802509599448</v>
+        <v>0.25043753119521234</v>
       </c>
       <c r="G31">
-        <v>0.25813578095358314</v>
+        <v>0.25120210996811559</v>
       </c>
       <c r="H31">
-        <v>0.25700858572897733</v>
+        <v>0.25012917298611942</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5950,28 +7838,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.25642783492673177</v>
+        <v>0.27259961969965441</v>
       </c>
       <c r="B32">
-        <v>0.26060289793129793</v>
+        <v>0.2538584674113652</v>
       </c>
       <c r="C32">
-        <v>0.26246052914025186</v>
+        <v>0.257423748934409</v>
       </c>
       <c r="D32">
-        <v>0.25409364345669644</v>
+        <v>0.25485781164081622</v>
       </c>
       <c r="E32">
-        <v>0.26233837876715022</v>
+        <v>0.25856671555867339</v>
       </c>
       <c r="F32">
-        <v>0.25566164952160786</v>
+        <v>0.25487707065137333</v>
       </c>
       <c r="G32">
-        <v>0.25841104110014645</v>
+        <v>0.25461983140834599</v>
       </c>
       <c r="H32">
-        <v>0.25675978818103634</v>
+        <v>0.2620880236508239</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5979,28 +7867,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.25755931003613741</v>
+        <v>0.29223912893755127</v>
       </c>
       <c r="B33">
-        <v>0.26426134230600251</v>
+        <v>0.25582069384783329</v>
       </c>
       <c r="C33">
-        <v>0.26326145486827535</v>
+        <v>0.25805308235987162</v>
       </c>
       <c r="D33">
-        <v>0.26018625521908456</v>
+        <v>0.25392662037568919</v>
       </c>
       <c r="E33">
-        <v>0.26489782276968377</v>
+        <v>0.2557211774940874</v>
       </c>
       <c r="F33">
-        <v>0.25592733819029523</v>
+        <v>0.25408334732026638</v>
       </c>
       <c r="G33">
-        <v>0.25633394034386386</v>
+        <v>0.25664400157554129</v>
       </c>
       <c r="H33">
-        <v>0.25820308307395445</v>
+        <v>0.25984582007278145</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6008,57 +7896,57 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.25418921692179264</v>
+        <v>0.25424674974197042</v>
       </c>
       <c r="B34">
-        <v>0.25783910353744249</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="C34">
-        <v>0.25585031627536642</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="D34">
-        <v>0.2549857166971003</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="E34">
-        <v>0.25643385589572099</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="F34">
-        <v>0.25456436353921208</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="G34">
-        <v>0.25538815066544451</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="H34">
-        <v>0.25361267019111217</v>
+        <v>0.24790052512673624</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.25265338980327667</v>
+        <v>0.25764654212230337</v>
       </c>
       <c r="B35">
-        <v>0.25901352389854199</v>
+        <v>0.25855106573363656</v>
       </c>
       <c r="C35">
-        <v>0.2613163123003413</v>
+        <v>0.25514647837533255</v>
       </c>
       <c r="D35">
-        <v>0.26077522143526843</v>
+        <v>0.25352340288173025</v>
       </c>
       <c r="E35">
-        <v>0.26045063532729346</v>
+        <v>0.25690917853304623</v>
       </c>
       <c r="F35">
-        <v>0.25723415589504306</v>
+        <v>0.2538554315225971</v>
       </c>
       <c r="G35">
-        <v>0.25924624568165111</v>
+        <v>0.25362182520213139</v>
       </c>
       <c r="H35">
-        <v>0.25750166348026426</v>
+        <v>0.25682211076311201</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6066,57 +7954,57 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.25404801130238347</v>
+        <v>0.2534179735352774</v>
       </c>
       <c r="B36">
-        <v>0.26083725444137629</v>
+        <v>0.25674115866602493</v>
       </c>
       <c r="C36">
-        <v>0.26078787171767398</v>
+        <v>0.25609816699015431</v>
       </c>
       <c r="D36">
-        <v>0.25812333094263784</v>
+        <v>0.25081704310582786</v>
       </c>
       <c r="E36">
-        <v>0.26027049870185515</v>
+        <v>0.25388233629703927</v>
       </c>
       <c r="F36">
-        <v>0.25674359705322669</v>
+        <v>0.25303498451745782</v>
       </c>
       <c r="G36">
-        <v>0.25799866991885989</v>
+        <v>0.25294143226798488</v>
       </c>
       <c r="H36">
-        <v>0.25525584479721464</v>
+        <v>0.27374893651934912</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.25636665821794802</v>
+        <v>0.27098676266000238</v>
       </c>
       <c r="B37">
-        <v>0.22608354228040017</v>
+        <v>0.25746166605691884</v>
       </c>
       <c r="C37">
-        <v>0.25524311791086629</v>
+        <v>0.25872296136085421</v>
       </c>
       <c r="D37">
-        <v>0.25344488517289904</v>
+        <v>0.25631689833780757</v>
       </c>
       <c r="E37">
-        <v>0.26268420591614949</v>
+        <v>0.26052210828065286</v>
       </c>
       <c r="F37">
-        <v>0.23161999252246215</v>
+        <v>0.25793560933247123</v>
       </c>
       <c r="G37">
-        <v>0.25313813543237296</v>
+        <v>0.25734727303173505</v>
       </c>
       <c r="H37">
-        <v>0.25730083066872672</v>
+        <v>0.2609824445163258</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -6124,31 +8012,5471 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.26852388432913865</v>
+      </c>
+      <c r="B38">
+        <v>0.25963595609172418</v>
+      </c>
+      <c r="C38">
+        <v>0.26158168135341375</v>
+      </c>
+      <c r="D38">
+        <v>0.25360776388054007</v>
+      </c>
+      <c r="E38">
+        <v>0.25590443804440516</v>
+      </c>
+      <c r="F38">
+        <v>0.25344937292758368</v>
+      </c>
+      <c r="G38">
+        <v>0.25534494385234685</v>
+      </c>
+      <c r="H38">
+        <v>0.27039698712437821</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.25755931003613741</v>
+      </c>
+      <c r="B39">
+        <v>0.26426134230600251</v>
+      </c>
+      <c r="C39">
+        <v>0.26326145486827535</v>
+      </c>
+      <c r="D39">
+        <v>0.26018625521908456</v>
+      </c>
+      <c r="E39">
+        <v>0.26489782276968377</v>
+      </c>
+      <c r="F39">
+        <v>0.25592733819029523</v>
+      </c>
+      <c r="G39">
+        <v>0.25633394034386386</v>
+      </c>
+      <c r="H39">
+        <v>0.25820308307395445</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.26334709886729124</v>
+      </c>
+      <c r="B40">
+        <v>0.25760046155632976</v>
+      </c>
+      <c r="C40">
+        <v>0.25806380202888557</v>
+      </c>
+      <c r="D40">
+        <v>0.25354574731279239</v>
+      </c>
+      <c r="E40">
+        <v>0.2547325048575072</v>
+      </c>
+      <c r="F40">
+        <v>0.25253375726710314</v>
+      </c>
+      <c r="G40">
+        <v>0.25145325630782661</v>
+      </c>
+      <c r="H40">
+        <v>0.25687018777391579</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.30374291785486462</v>
+      </c>
+      <c r="B41">
+        <v>0.26027358818141955</v>
+      </c>
+      <c r="C41">
+        <v>0.25780546601207061</v>
+      </c>
+      <c r="D41">
+        <v>0.25206082812483505</v>
+      </c>
+      <c r="E41">
+        <v>0.25358958406910209</v>
+      </c>
+      <c r="F41">
+        <v>0.25156939785437926</v>
+      </c>
+      <c r="G41">
+        <v>0.25315077044334389</v>
+      </c>
+      <c r="H41">
+        <v>0.25564285956102473</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.2519507911253539</v>
+      </c>
+      <c r="B42">
+        <v>0.25443069752780567</v>
+      </c>
+      <c r="C42">
+        <v>0.25497784484475788</v>
+      </c>
+      <c r="D42">
+        <v>0.25369514880321814</v>
+      </c>
+      <c r="E42">
+        <v>0.25460657873636205</v>
+      </c>
+      <c r="F42">
+        <v>0.2529638691362836</v>
+      </c>
+      <c r="G42">
+        <v>0.25343087670853542</v>
+      </c>
+      <c r="H42">
+        <v>0.25245944468620174</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.259069431901081</v>
+      </c>
+      <c r="B43">
+        <v>0.25377420096391906</v>
+      </c>
+      <c r="C43">
+        <v>0.25497292023776297</v>
+      </c>
+      <c r="D43">
+        <v>0.25236337315186375</v>
+      </c>
+      <c r="E43">
+        <v>0.25533449897396104</v>
+      </c>
+      <c r="F43">
+        <v>0.25272837188994562</v>
+      </c>
+      <c r="G43">
+        <v>0.25424854317713125</v>
+      </c>
+      <c r="H43">
+        <v>0.25396743548038148</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.26082634324904969</v>
+      </c>
+      <c r="B44">
+        <v>0.26956175786196584</v>
+      </c>
+      <c r="C44">
+        <v>0.25793741074049242</v>
+      </c>
+      <c r="D44">
+        <v>0.25269508872940788</v>
+      </c>
+      <c r="E44">
+        <v>0.25901301220206557</v>
+      </c>
+      <c r="F44">
+        <v>0.25541972353453846</v>
+      </c>
+      <c r="G44">
+        <v>0.25452454802548752</v>
+      </c>
+      <c r="H44">
+        <v>0.25849020321076049</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.25309075283888249</v>
+      </c>
+      <c r="B45">
+        <v>0.25379620127315661</v>
+      </c>
+      <c r="C45">
+        <v>0.25673778658644103</v>
+      </c>
+      <c r="D45">
+        <v>0.25496369829633242</v>
+      </c>
+      <c r="E45">
+        <v>0.25843673476282514</v>
+      </c>
+      <c r="F45">
+        <v>0.25700763147690436</v>
+      </c>
+      <c r="G45">
+        <v>0.25485513753991801</v>
+      </c>
+      <c r="H45">
+        <v>0.25374852258946862</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.54618629398847862</v>
+      </c>
+      <c r="B46">
+        <v>0.28143816370565805</v>
+      </c>
+      <c r="C46">
+        <v>0.28911884002432253</v>
+      </c>
+      <c r="D46">
+        <v>0.25994853102353055</v>
+      </c>
+      <c r="E46">
+        <v>0.27034102217801464</v>
+      </c>
+      <c r="F46">
+        <v>0.25327139546122363</v>
+      </c>
+      <c r="G46">
+        <v>0.26124262779266438</v>
+      </c>
+      <c r="H46">
+        <v>0.26619716835349339</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.56564164294082808</v>
+      </c>
+      <c r="B47">
+        <v>0.26656917248852674</v>
+      </c>
+      <c r="C47">
+        <v>0.26277265127446403</v>
+      </c>
+      <c r="D47">
+        <v>0.25313136331206038</v>
+      </c>
+      <c r="E47">
+        <v>0.25741439345552053</v>
+      </c>
+      <c r="F47">
+        <v>0.25236253195172087</v>
+      </c>
+      <c r="G47">
+        <v>0.25564885555902978</v>
+      </c>
+      <c r="H47">
+        <v>0.25917477513048542</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.25982632875062867</v>
+      </c>
+      <c r="B48">
+        <v>0.28738817600476352</v>
+      </c>
+      <c r="C48">
+        <v>0.29007433027983609</v>
+      </c>
+      <c r="D48">
+        <v>0.25597397599231964</v>
+      </c>
+      <c r="E48">
+        <v>0.28465779610871184</v>
+      </c>
+      <c r="F48">
+        <v>0.27406907176171963</v>
+      </c>
+      <c r="G48">
+        <v>0.26483391010565027</v>
+      </c>
+      <c r="H48">
+        <v>0.28577644508102984</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.31717814523735782</v>
+      </c>
+      <c r="B49">
+        <v>0.26605370929017091</v>
+      </c>
+      <c r="C49">
+        <v>0.26404485018282453</v>
+      </c>
+      <c r="D49">
+        <v>0.29994708280295584</v>
+      </c>
+      <c r="E49">
+        <v>0.27108392263830555</v>
+      </c>
+      <c r="F49">
+        <v>0.26316120687109168</v>
+      </c>
+      <c r="G49">
+        <v>0.26154252667467998</v>
+      </c>
+      <c r="H49">
+        <v>0.26097377573393249</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.31015215035501265</v>
+      </c>
+      <c r="B50">
+        <v>0.26207769766928918</v>
+      </c>
+      <c r="C50">
+        <v>0.26124334523621656</v>
+      </c>
+      <c r="D50">
+        <v>0.25843233737123283</v>
+      </c>
+      <c r="E50">
+        <v>0.26105407089530303</v>
+      </c>
+      <c r="F50">
+        <v>0.25890201086724285</v>
+      </c>
+      <c r="G50">
+        <v>0.2568995720348648</v>
+      </c>
+      <c r="H50">
+        <v>0.25910675476424383</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.2962259750360029</v>
+      </c>
+      <c r="B51">
+        <v>0.23462885818875015</v>
+      </c>
+      <c r="C51">
+        <v>0.25696432906630307</v>
+      </c>
+      <c r="D51">
+        <v>0.26366937237080418</v>
+      </c>
+      <c r="E51">
+        <v>0.26310508659950965</v>
+      </c>
+      <c r="F51">
+        <v>0.24096847236440935</v>
+      </c>
+      <c r="G51">
+        <v>0.25620627272663954</v>
+      </c>
+      <c r="H51">
+        <v>0.2581354365793086</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.4627171676210054</v>
+      </c>
+      <c r="B52">
+        <v>0.26911897339612312</v>
+      </c>
+      <c r="C52">
+        <v>0.26448373266993125</v>
+      </c>
+      <c r="D52">
+        <v>0.26307705382625934</v>
+      </c>
+      <c r="E52">
+        <v>0.26330665786312701</v>
+      </c>
+      <c r="F52">
+        <v>0.26408045787783208</v>
+      </c>
+      <c r="G52">
+        <v>0.26903692144219243</v>
+      </c>
+      <c r="H52">
+        <v>0.26665256401722182</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.31751271955113025</v>
+      </c>
+      <c r="B53">
+        <v>0.26100837221454737</v>
+      </c>
+      <c r="C53">
+        <v>0.26076533649386513</v>
+      </c>
+      <c r="D53">
+        <v>0.281585572975661</v>
+      </c>
+      <c r="E53">
+        <v>0.26689117425478337</v>
+      </c>
+      <c r="F53">
+        <v>0.2627982539947844</v>
+      </c>
+      <c r="G53">
+        <v>0.25744161903242285</v>
+      </c>
+      <c r="H53">
+        <v>0.25983813850912291</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.25730707703032857</v>
+      </c>
+      <c r="B54">
+        <v>0.25777901401676057</v>
+      </c>
+      <c r="C54">
+        <v>0.25785567277722565</v>
+      </c>
+      <c r="D54">
+        <v>0.25658752761419029</v>
+      </c>
+      <c r="E54">
+        <v>0.25863237129490346</v>
+      </c>
+      <c r="F54">
+        <v>0.25512631536866481</v>
+      </c>
+      <c r="G54">
+        <v>0.2564886043084868</v>
+      </c>
+      <c r="H54">
+        <v>0.2560892620421617</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.25664364214999885</v>
+      </c>
+      <c r="B55">
+        <v>0.25754141058949953</v>
+      </c>
+      <c r="C55">
+        <v>0.25845760588954164</v>
+      </c>
+      <c r="D55">
+        <v>0.25883713048132773</v>
+      </c>
+      <c r="E55">
+        <v>0.25864481119348742</v>
+      </c>
+      <c r="F55">
+        <v>0.25401382255635435</v>
+      </c>
+      <c r="G55">
+        <v>0.25691455690705262</v>
+      </c>
+      <c r="H55">
+        <v>0.25753056541071023</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.25448704022762292</v>
+      </c>
+      <c r="B56">
+        <v>0.25775951185842916</v>
+      </c>
+      <c r="C56">
+        <v>0.26794756876528936</v>
+      </c>
+      <c r="D56">
+        <v>0.25450148853486454</v>
+      </c>
+      <c r="E56">
+        <v>0.25800372302995772</v>
+      </c>
+      <c r="F56">
+        <v>0.2537180883121955</v>
+      </c>
+      <c r="G56">
+        <v>0.27150416726799748</v>
+      </c>
+      <c r="H56">
+        <v>0.251872928504976</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.3195410327890536</v>
+      </c>
+      <c r="B57">
+        <v>0.25847073859519465</v>
+      </c>
+      <c r="C57">
+        <v>0.25877391447417991</v>
+      </c>
+      <c r="D57">
+        <v>0.25840778165814654</v>
+      </c>
+      <c r="E57">
+        <v>0.25850460387548102</v>
+      </c>
+      <c r="F57">
+        <v>0.25933568665243412</v>
+      </c>
+      <c r="G57">
+        <v>0.25782270896828247</v>
+      </c>
+      <c r="H57">
+        <v>0.25957098216327706</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.25633878503635682</v>
+      </c>
+      <c r="B58">
+        <v>0.2547444188312703</v>
+      </c>
+      <c r="C58">
+        <v>0.25436427644762227</v>
+      </c>
+      <c r="D58">
+        <v>0.25152803863637146</v>
+      </c>
+      <c r="E58">
+        <v>0.25810390905904235</v>
+      </c>
+      <c r="F58">
+        <v>0.25236545834428753</v>
+      </c>
+      <c r="G58">
+        <v>0.25138951504527152</v>
+      </c>
+      <c r="H58">
+        <v>0.25761924954738152</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.43298595786371175</v>
+      </c>
+      <c r="B59">
+        <v>0.27307613873827774</v>
+      </c>
+      <c r="C59">
+        <v>0.26826257561421202</v>
+      </c>
+      <c r="D59">
+        <v>0.26170449010894259</v>
+      </c>
+      <c r="E59">
+        <v>0.26177880345022975</v>
+      </c>
+      <c r="F59">
+        <v>0.26374658111411947</v>
+      </c>
+      <c r="G59">
+        <v>0.2698272024794281</v>
+      </c>
+      <c r="H59">
+        <v>0.27135325925107623</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.25437311013804814</v>
+      </c>
+      <c r="B60">
+        <v>0.25564789834197676</v>
+      </c>
+      <c r="C60">
+        <v>0.25585218307311408</v>
+      </c>
+      <c r="D60">
+        <v>0.2545841464661171</v>
+      </c>
+      <c r="E60">
+        <v>0.25568031986850148</v>
+      </c>
+      <c r="F60">
+        <v>0.25434796669059773</v>
+      </c>
+      <c r="G60">
+        <v>0.25339879733702786</v>
+      </c>
+      <c r="H60">
+        <v>0.25307871510591629</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.25786150705676125</v>
+      </c>
+      <c r="B61">
+        <v>0.21292296880838352</v>
+      </c>
+      <c r="C61">
+        <v>0.25390429475988974</v>
+      </c>
+      <c r="D61">
+        <v>0.25744132356354332</v>
+      </c>
+      <c r="E61">
+        <v>0.26123525290916405</v>
+      </c>
+      <c r="F61">
+        <v>0.18642735963590529</v>
+      </c>
+      <c r="G61">
+        <v>0.2485718214806179</v>
+      </c>
+      <c r="H61">
+        <v>0.26361666449910198</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.25272477859261133</v>
+      </c>
+      <c r="B62">
+        <v>0.25392181361861993</v>
+      </c>
+      <c r="C62">
+        <v>0.25259024146326531</v>
+      </c>
+      <c r="D62">
+        <v>0.24953499962109821</v>
+      </c>
+      <c r="E62">
+        <v>0.25115418594930533</v>
+      </c>
+      <c r="F62">
+        <v>0.25412241485961623</v>
+      </c>
+      <c r="G62">
+        <v>0.25368586368644269</v>
+      </c>
+      <c r="H62">
+        <v>0.27418159393607761</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.25553361878537029</v>
+      </c>
+      <c r="B63">
+        <v>0.25785341164222741</v>
+      </c>
+      <c r="C63">
+        <v>0.25886254509669665</v>
+      </c>
+      <c r="D63">
+        <v>0.25494603123225484</v>
+      </c>
+      <c r="E63">
+        <v>0.25719406526890676</v>
+      </c>
+      <c r="F63">
+        <v>0.25499195695452181</v>
+      </c>
+      <c r="G63">
+        <v>0.25525446383779143</v>
+      </c>
+      <c r="H63">
+        <v>0.25367188013719372</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.30325795051681698</v>
+      </c>
+      <c r="B64">
+        <v>0.26445962606880519</v>
+      </c>
+      <c r="C64">
+        <v>0.26007601673529901</v>
+      </c>
+      <c r="D64">
+        <v>0.25971515988530408</v>
+      </c>
+      <c r="E64">
+        <v>0.26749253927325833</v>
+      </c>
+      <c r="F64">
+        <v>0.26125732732567436</v>
+      </c>
+      <c r="G64">
+        <v>0.25834413809457768</v>
+      </c>
+      <c r="H64">
+        <v>0.25769627376897464</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.25394673829039</v>
+      </c>
+      <c r="B65">
+        <v>0.25391520236293263</v>
+      </c>
+      <c r="C65">
+        <v>0.25542773782141359</v>
+      </c>
+      <c r="D65">
+        <v>0.25317114236226795</v>
+      </c>
+      <c r="E65">
+        <v>0.25446344237232621</v>
+      </c>
+      <c r="F65">
+        <v>0.25340509063301286</v>
+      </c>
+      <c r="G65">
+        <v>0.25581500347645164</v>
+      </c>
+      <c r="H65">
+        <v>0.25381621771691187</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.32769869165249238</v>
+      </c>
+      <c r="B66">
+        <v>0.27353069003988917</v>
+      </c>
+      <c r="C66">
+        <v>0.26558557444213476</v>
+      </c>
+      <c r="D66">
+        <v>0.26021038771181376</v>
+      </c>
+      <c r="E66">
+        <v>0.2644064840199285</v>
+      </c>
+      <c r="F66">
+        <v>0.25953216786806887</v>
+      </c>
+      <c r="G66">
+        <v>0.25973718842745158</v>
+      </c>
+      <c r="H66">
+        <v>0.26290021613672926</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.25304077321767166</v>
+      </c>
+      <c r="B67">
+        <v>0.25344873926967509</v>
+      </c>
+      <c r="C67">
+        <v>0.25364986794040667</v>
+      </c>
+      <c r="D67">
+        <v>0.25294283364720327</v>
+      </c>
+      <c r="E67">
+        <v>0.2532671513639852</v>
+      </c>
+      <c r="F67">
+        <v>0.24897738245342713</v>
+      </c>
+      <c r="G67">
+        <v>0.25319615356175856</v>
+      </c>
+      <c r="H67">
+        <v>0.27182912501128009</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.25260749324749182</v>
+      </c>
+      <c r="B68">
+        <v>0.20972118220135172</v>
+      </c>
+      <c r="C68">
+        <v>0.25687874240808212</v>
+      </c>
+      <c r="D68">
+        <v>0.25283709607750843</v>
+      </c>
+      <c r="E68">
+        <v>0.25517118654611504</v>
+      </c>
+      <c r="F68">
+        <v>0.20523725382409386</v>
+      </c>
+      <c r="G68">
+        <v>0.24815193070597008</v>
+      </c>
+      <c r="H68">
+        <v>0.26416924266754188</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.26640779216758825</v>
+      </c>
+      <c r="B69">
+        <v>0.26692011565291074</v>
+      </c>
+      <c r="C69">
+        <v>0.27191192011343646</v>
+      </c>
+      <c r="D69">
+        <v>0.25521123577149679</v>
+      </c>
+      <c r="E69">
+        <v>0.27173055910032973</v>
+      </c>
+      <c r="F69">
+        <v>0.26788575210240068</v>
+      </c>
+      <c r="G69">
+        <v>0.25875337852510633</v>
+      </c>
+      <c r="H69">
+        <v>0.27592491469856018</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.25618894826745603</v>
+      </c>
+      <c r="B70">
+        <v>0.25488927391446237</v>
+      </c>
+      <c r="C70">
+        <v>0.25516213869648668</v>
+      </c>
+      <c r="D70">
+        <v>0.25382626986683682</v>
+      </c>
+      <c r="E70">
+        <v>0.25783379716839744</v>
+      </c>
+      <c r="F70">
+        <v>0.25247502044125358</v>
+      </c>
+      <c r="G70">
+        <v>0.25359689955912512</v>
+      </c>
+      <c r="H70">
+        <v>0.25429694660018271</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.35279985698562272</v>
+      </c>
+      <c r="B71">
+        <v>0.26324869158271036</v>
+      </c>
+      <c r="C71">
+        <v>0.25855948631831888</v>
+      </c>
+      <c r="D71">
+        <v>0.25587063939345867</v>
+      </c>
+      <c r="E71">
+        <v>0.25741895525403391</v>
+      </c>
+      <c r="F71">
+        <v>0.25822315612664321</v>
+      </c>
+      <c r="G71">
+        <v>0.25860700722996732</v>
+      </c>
+      <c r="H71">
+        <v>0.25914819638216396</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.31520372450769646</v>
+      </c>
+      <c r="B72">
+        <v>0.26707950123501617</v>
+      </c>
+      <c r="C72">
+        <v>0.26397310618012326</v>
+      </c>
+      <c r="D72">
+        <v>0.31056167663140177</v>
+      </c>
+      <c r="E72">
+        <v>0.27045643877034792</v>
+      </c>
+      <c r="F72">
+        <v>0.26498037870318608</v>
+      </c>
+      <c r="G72">
+        <v>0.26007806906016834</v>
+      </c>
+      <c r="H72">
+        <v>0.26096415634075482</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.25636665821794802</v>
+      </c>
+      <c r="B73">
+        <v>0.22608354228040017</v>
+      </c>
+      <c r="C73">
+        <v>0.25524311791086629</v>
+      </c>
+      <c r="D73">
+        <v>0.25344488517289904</v>
+      </c>
+      <c r="E73">
+        <v>0.26268420591614949</v>
+      </c>
+      <c r="F73">
+        <v>0.23161999252246215</v>
+      </c>
+      <c r="G73">
+        <v>0.25313813543237296</v>
+      </c>
+      <c r="H73">
+        <v>0.25730083066872672</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.28101132731689166</v>
+      </c>
+      <c r="B74">
+        <v>0.27237698791537734</v>
+      </c>
+      <c r="C74">
+        <v>0.25735471793012615</v>
+      </c>
+      <c r="D74">
+        <v>0.25724644956429432</v>
+      </c>
+      <c r="E74">
+        <v>0.25756626057936477</v>
+      </c>
+      <c r="F74">
+        <v>0.25876192362344758</v>
+      </c>
+      <c r="G74">
+        <v>0.25784167583368095</v>
+      </c>
+      <c r="H74">
+        <v>0.26320235579976681</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.25357265110864041</v>
+      </c>
+      <c r="B75">
+        <v>0.2594309743691377</v>
+      </c>
+      <c r="C75">
+        <v>0.26027875623725927</v>
+      </c>
+      <c r="D75">
+        <v>0.25684729690169661</v>
+      </c>
+      <c r="E75">
+        <v>0.26370925005091866</v>
+      </c>
+      <c r="F75">
+        <v>0.25478669884840194</v>
+      </c>
+      <c r="G75">
+        <v>0.25701686574810573</v>
+      </c>
+      <c r="H75">
+        <v>0.25640473388321972</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.25201274397287943</v>
+      </c>
+      <c r="B76">
+        <v>0.25146025017586515</v>
+      </c>
+      <c r="C76">
+        <v>0.25160053541736771</v>
+      </c>
+      <c r="D76">
+        <v>0.25045547566520754</v>
+      </c>
+      <c r="E76">
+        <v>0.25212258630981593</v>
+      </c>
+      <c r="F76">
+        <v>0.25088961219177225</v>
+      </c>
+      <c r="G76">
+        <v>0.25191497787818201</v>
+      </c>
+      <c r="H76">
+        <v>0.25230327509485179</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.25265338980327667</v>
+      </c>
+      <c r="B77">
+        <v>0.25901352389854199</v>
+      </c>
+      <c r="C77">
+        <v>0.2613163123003413</v>
+      </c>
+      <c r="D77">
+        <v>0.26077522143526843</v>
+      </c>
+      <c r="E77">
+        <v>0.26045063532729346</v>
+      </c>
+      <c r="F77">
+        <v>0.25723415589504306</v>
+      </c>
+      <c r="G77">
+        <v>0.25924624568165111</v>
+      </c>
+      <c r="H77">
+        <v>0.25750166348026426</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.26691512886824964</v>
+      </c>
+      <c r="B78">
+        <v>0.2602788139644836</v>
+      </c>
+      <c r="C78">
+        <v>0.25757464066611913</v>
+      </c>
+      <c r="D78">
+        <v>0.25571767361157949</v>
+      </c>
+      <c r="E78">
+        <v>0.25983707752474389</v>
+      </c>
+      <c r="F78">
+        <v>0.25772818926816482</v>
+      </c>
+      <c r="G78">
+        <v>0.25456502306676809</v>
+      </c>
+      <c r="H78">
+        <v>0.26132776839761251</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.25322654654124338</v>
+      </c>
+      <c r="B79">
+        <v>0.25118641999041852</v>
+      </c>
+      <c r="C79">
+        <v>0.2516996965123105</v>
+      </c>
+      <c r="D79">
+        <v>0.59319636796890873</v>
+      </c>
+      <c r="E79">
+        <v>0.25214705728712755</v>
+      </c>
+      <c r="F79">
+        <v>0.25083292150936237</v>
+      </c>
+      <c r="G79">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H79">
+        <v>0.25061743162963251</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.28368946518344412</v>
+      </c>
+      <c r="B80">
+        <v>0.26325032922881247</v>
+      </c>
+      <c r="C80">
+        <v>0.26985686723047364</v>
+      </c>
+      <c r="D80">
+        <v>0.25810570046312326</v>
+      </c>
+      <c r="E80">
+        <v>0.27153607354428572</v>
+      </c>
+      <c r="F80">
+        <v>0.27008704987884602</v>
+      </c>
+      <c r="G80">
+        <v>0.2637966954383501</v>
+      </c>
+      <c r="H80">
+        <v>0.28226782696332975</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.27757200911808283</v>
+      </c>
+      <c r="B81">
+        <v>0.2565005326196389</v>
+      </c>
+      <c r="C81">
+        <v>0.26524686082947163</v>
+      </c>
+      <c r="D81">
+        <v>0.26070590542983191</v>
+      </c>
+      <c r="E81">
+        <v>0.27964866947826839</v>
+      </c>
+      <c r="F81">
+        <v>0.24731341286320249</v>
+      </c>
+      <c r="G81">
+        <v>0.26986241460629173</v>
+      </c>
+      <c r="H81">
+        <v>0.29739070760709158</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.26001301390972537</v>
+      </c>
+      <c r="B82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H82">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.25810693036184335</v>
+      </c>
+      <c r="B83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H83">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.2698325930447466</v>
+      </c>
+      <c r="B84">
+        <v>0.26287114251467514</v>
+      </c>
+      <c r="C84">
+        <v>0.26083324510440264</v>
+      </c>
+      <c r="D84">
+        <v>0.26159763156529581</v>
+      </c>
+      <c r="E84">
+        <v>0.26728055507973919</v>
+      </c>
+      <c r="F84">
+        <v>0.26161872096067851</v>
+      </c>
+      <c r="G84">
+        <v>0.25802338279704717</v>
+      </c>
+      <c r="H84">
+        <v>0.26794219065239505</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.25570617291347125</v>
+      </c>
+      <c r="B85">
+        <v>0.25540978428449185</v>
+      </c>
+      <c r="C85">
+        <v>0.21929838630369697</v>
+      </c>
+      <c r="D85">
+        <v>0.20699845411402856</v>
+      </c>
+      <c r="E85">
+        <v>0.12651176759085458</v>
+      </c>
+      <c r="F85">
+        <v>0.25275944945818529</v>
+      </c>
+      <c r="G85">
+        <v>0.22834369223894757</v>
+      </c>
+      <c r="H85">
+        <v>0.14093692494362076</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.25521312208844221</v>
+      </c>
+      <c r="B86">
+        <v>0.25592015772011628</v>
+      </c>
+      <c r="C86">
+        <v>0.2575622225048767</v>
+      </c>
+      <c r="D86">
+        <v>0.25486661929493726</v>
+      </c>
+      <c r="E86">
+        <v>0.25705062438748527</v>
+      </c>
+      <c r="F86">
+        <v>0.25569017160627661</v>
+      </c>
+      <c r="G86">
+        <v>0.25628237133609283</v>
+      </c>
+      <c r="H86">
+        <v>0.25430991754013249</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.32110781306356351</v>
+      </c>
+      <c r="B87">
+        <v>0.26338615038729918</v>
+      </c>
+      <c r="C87">
+        <v>0.26269358309839203</v>
+      </c>
+      <c r="D87">
+        <v>0.26466269571217277</v>
+      </c>
+      <c r="E87">
+        <v>0.26629397140276878</v>
+      </c>
+      <c r="F87">
+        <v>0.26531951648472701</v>
+      </c>
+      <c r="G87">
+        <v>0.25958974680278224</v>
+      </c>
+      <c r="H87">
+        <v>0.26194868141005961</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.26292820027467695</v>
+      </c>
+      <c r="B88">
+        <v>0.25545037078108418</v>
+      </c>
+      <c r="C88">
+        <v>0.25777787443539624</v>
+      </c>
+      <c r="D88">
+        <v>0.25428182701659652</v>
+      </c>
+      <c r="E88">
+        <v>0.25551955132619114</v>
+      </c>
+      <c r="F88">
+        <v>0.25243479277202646</v>
+      </c>
+      <c r="G88">
+        <v>0.25439587756296411</v>
+      </c>
+      <c r="H88">
+        <v>0.25776870655231998</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.37037286005527814</v>
+      </c>
+      <c r="B89">
+        <v>0.28194914748349048</v>
+      </c>
+      <c r="C89">
+        <v>0.2733909641409315</v>
+      </c>
+      <c r="D89">
+        <v>0.26089188653482309</v>
+      </c>
+      <c r="E89">
+        <v>0.2697429551065571</v>
+      </c>
+      <c r="F89">
+        <v>0.25759639026436904</v>
+      </c>
+      <c r="G89">
+        <v>0.26642573994312702</v>
+      </c>
+      <c r="H89">
+        <v>0.26256517936760082</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.30200789762211783</v>
+      </c>
+      <c r="B90">
+        <v>0.26391883668966654</v>
+      </c>
+      <c r="C90">
+        <v>0.25710619737422513</v>
+      </c>
+      <c r="D90">
+        <v>0.2580535439631691</v>
+      </c>
+      <c r="E90">
+        <v>0.26043102422834358</v>
+      </c>
+      <c r="F90">
+        <v>0.25521024115226421</v>
+      </c>
+      <c r="G90">
+        <v>0.26772020646004407</v>
+      </c>
+      <c r="H90">
+        <v>0.26425128593503017</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.25404801130238347</v>
+      </c>
+      <c r="B91">
+        <v>0.26083725444137629</v>
+      </c>
+      <c r="C91">
+        <v>0.26078787171767398</v>
+      </c>
+      <c r="D91">
+        <v>0.25812333094263784</v>
+      </c>
+      <c r="E91">
+        <v>0.26027049870185515</v>
+      </c>
+      <c r="F91">
+        <v>0.25674359705322669</v>
+      </c>
+      <c r="G91">
+        <v>0.25799866991885989</v>
+      </c>
+      <c r="H91">
+        <v>0.25525584479721464</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.25661001576831255</v>
+      </c>
+      <c r="B92">
+        <v>0.26316745874714598</v>
+      </c>
+      <c r="C92">
+        <v>0.25692701601302192</v>
+      </c>
+      <c r="D92">
+        <v>0.2532657356592784</v>
+      </c>
+      <c r="E92">
+        <v>0.25318095463868467</v>
+      </c>
+      <c r="F92">
+        <v>0.25418288004063155</v>
+      </c>
+      <c r="G92">
+        <v>0.25666367205207147</v>
+      </c>
+      <c r="H92">
+        <v>0.26929287952842307</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.2615866122076449</v>
+      </c>
+      <c r="B93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H93">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.25065046994382406</v>
+      </c>
+      <c r="B94">
+        <v>0.23755755896518355</v>
+      </c>
+      <c r="C94">
+        <v>0.25114348291291111</v>
+      </c>
+      <c r="D94">
+        <v>0.2835020483961691</v>
+      </c>
+      <c r="E94">
+        <v>0.26134711497967111</v>
+      </c>
+      <c r="F94">
+        <v>0.21607788925230823</v>
+      </c>
+      <c r="G94">
+        <v>0.25554487184806601</v>
+      </c>
+      <c r="H94">
+        <v>0.26936719806790665</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.25551095445084543</v>
+      </c>
+      <c r="B95">
+        <v>0.25740237388914955</v>
+      </c>
+      <c r="C95">
+        <v>0.25949247562826072</v>
+      </c>
+      <c r="D95">
+        <v>0.25687232947782751</v>
+      </c>
+      <c r="E95">
+        <v>0.25961880346325589</v>
+      </c>
+      <c r="F95">
+        <v>0.25412244627946357</v>
+      </c>
+      <c r="G95">
+        <v>0.25714415735299773</v>
+      </c>
+      <c r="H95">
+        <v>0.25400514350954689</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.25089440081159553</v>
+      </c>
+      <c r="B96">
+        <v>0.25273957762912785</v>
+      </c>
+      <c r="C96">
+        <v>0.25604318128306308</v>
+      </c>
+      <c r="D96">
+        <v>0.25095076626671164</v>
+      </c>
+      <c r="E96">
+        <v>0.25481184112158867</v>
+      </c>
+      <c r="F96">
+        <v>0.25227981667962246</v>
+      </c>
+      <c r="G96">
+        <v>0.25402880586424131</v>
+      </c>
+      <c r="H96">
+        <v>0.25045311556280897</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.25484039014842447</v>
+      </c>
+      <c r="B97">
+        <v>0.25345820003051595</v>
+      </c>
+      <c r="C97">
+        <v>0.25424427146915857</v>
+      </c>
+      <c r="D97">
+        <v>0.58334153342005512</v>
+      </c>
+      <c r="E97">
+        <v>0.25437337200844912</v>
+      </c>
+      <c r="F97">
+        <v>0.25118461160116329</v>
+      </c>
+      <c r="G97">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H97">
+        <v>0.25224150179582583</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.31890618785308927</v>
+      </c>
+      <c r="B98">
+        <v>0.26152863323710313</v>
+      </c>
+      <c r="C98">
+        <v>0.26049479774426981</v>
+      </c>
+      <c r="D98">
+        <v>0.26389316141865032</v>
+      </c>
+      <c r="E98">
+        <v>0.26198457655445079</v>
+      </c>
+      <c r="F98">
+        <v>0.26162646320981187</v>
+      </c>
+      <c r="G98">
+        <v>0.26228685438571037</v>
+      </c>
+      <c r="H98">
+        <v>0.26108237971237758</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.26450084156862819</v>
+      </c>
+      <c r="B99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H99">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.25773215745467859</v>
+      </c>
+      <c r="B100">
+        <v>0.25788488634261647</v>
+      </c>
+      <c r="C100">
+        <v>0.25899953569573669</v>
+      </c>
+      <c r="D100">
+        <v>0.25549651239883908</v>
+      </c>
+      <c r="E100">
+        <v>0.25806763488655021</v>
+      </c>
+      <c r="F100">
+        <v>0.25610785203949804</v>
+      </c>
+      <c r="G100">
+        <v>0.25823824046511384</v>
+      </c>
+      <c r="H100">
+        <v>0.25593300432651317</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.25420230997413884</v>
+      </c>
+      <c r="B101">
+        <v>0.26002241966573908</v>
+      </c>
+      <c r="C101">
+        <v>0.25608869154261998</v>
+      </c>
+      <c r="D101">
+        <v>0.25255515785868465</v>
+      </c>
+      <c r="E101">
+        <v>0.25391396636692926</v>
+      </c>
+      <c r="F101">
+        <v>0.25408756970600832</v>
+      </c>
+      <c r="G101">
+        <v>0.25425342994313027</v>
+      </c>
+      <c r="H101">
+        <v>0.26679015076269358</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.26094244294948676</v>
+      </c>
+      <c r="B102">
+        <v>0.24733113110886387</v>
+      </c>
+      <c r="C102">
+        <v>0.25231747036781427</v>
+      </c>
+      <c r="D102">
+        <v>0.25373246035341412</v>
+      </c>
+      <c r="E102">
+        <v>0.25600430582658668</v>
+      </c>
+      <c r="F102">
+        <v>0.24892129482287911</v>
+      </c>
+      <c r="G102">
+        <v>0.25208180580942829</v>
+      </c>
+      <c r="H102">
+        <v>0.26983241889069443</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.25418888189258548</v>
+      </c>
+      <c r="B103">
+        <v>0.25404696681001326</v>
+      </c>
+      <c r="C103">
+        <v>0.25202137974396521</v>
+      </c>
+      <c r="D103">
+        <v>0.25162349390399724</v>
+      </c>
+      <c r="E103">
+        <v>0.25166868866007253</v>
+      </c>
+      <c r="F103">
+        <v>0.25387186299821546</v>
+      </c>
+      <c r="G103">
+        <v>0.25306408278161391</v>
+      </c>
+      <c r="H103">
+        <v>0.2643941446157565</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.31169611142221804</v>
+      </c>
+      <c r="B104">
+        <v>0.26801551878376706</v>
+      </c>
+      <c r="C104">
+        <v>0.26521131115824176</v>
+      </c>
+      <c r="D104">
+        <v>0.2653914599629566</v>
+      </c>
+      <c r="E104">
+        <v>0.27182837984267649</v>
+      </c>
+      <c r="F104">
+        <v>0.26532025936326648</v>
+      </c>
+      <c r="G104">
+        <v>0.26464896684178807</v>
+      </c>
+      <c r="H104">
+        <v>0.25928952786378251</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.25243290337991597</v>
+      </c>
+      <c r="B105">
+        <v>0.25415493234566544</v>
+      </c>
+      <c r="C105">
+        <v>0.25440754420581452</v>
+      </c>
+      <c r="D105">
+        <v>0.25061849558151489</v>
+      </c>
+      <c r="E105">
+        <v>0.25289438307781253</v>
+      </c>
+      <c r="F105">
+        <v>0.2537320045912792</v>
+      </c>
+      <c r="G105">
+        <v>0.25392237912926641</v>
+      </c>
+      <c r="H105">
+        <v>0.25485801754468818</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.28789629737410177</v>
+      </c>
+      <c r="B106">
+        <v>0.27730725365872644</v>
+      </c>
+      <c r="C106">
+        <v>0.26694935453654955</v>
+      </c>
+      <c r="D106">
+        <v>0.27185416280435959</v>
+      </c>
+      <c r="E106">
+        <v>0.27740848644173832</v>
+      </c>
+      <c r="F106">
+        <v>0.26445128787677374</v>
+      </c>
+      <c r="G106">
+        <v>0.25846821345026411</v>
+      </c>
+      <c r="H106">
+        <v>0.26921841366041244</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.25125754918001114</v>
+      </c>
+      <c r="B107">
+        <v>0.24639408705817301</v>
+      </c>
+      <c r="C107">
+        <v>0.25422007622514103</v>
+      </c>
+      <c r="D107">
+        <v>0.25208120362536712</v>
+      </c>
+      <c r="E107">
+        <v>0.25339752249300729</v>
+      </c>
+      <c r="F107">
+        <v>0.24752176106117252</v>
+      </c>
+      <c r="G107">
+        <v>0.2532323341567656</v>
+      </c>
+      <c r="H107">
+        <v>0.25144955123687041</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.29785010005676682</v>
+      </c>
+      <c r="B108">
+        <v>0.26306564269041988</v>
+      </c>
+      <c r="C108">
+        <v>0.26228204714563996</v>
+      </c>
+      <c r="D108">
+        <v>0.26655094647831107</v>
+      </c>
+      <c r="E108">
+        <v>0.26811740862527017</v>
+      </c>
+      <c r="F108">
+        <v>0.26402306072808529</v>
+      </c>
+      <c r="G108">
+        <v>0.2577892499724162</v>
+      </c>
+      <c r="H108">
+        <v>0.26126323968241455</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.28162332254129052</v>
+      </c>
+      <c r="B109">
+        <v>0.2634529237824027</v>
+      </c>
+      <c r="C109">
+        <v>0.2637110573919601</v>
+      </c>
+      <c r="D109">
+        <v>0.260713686023826</v>
+      </c>
+      <c r="E109">
+        <v>0.26626844623870172</v>
+      </c>
+      <c r="F109">
+        <v>0.26291255111883804</v>
+      </c>
+      <c r="G109">
+        <v>0.25712821703799094</v>
+      </c>
+      <c r="H109">
+        <v>0.25922023355786133</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.32147665602724551</v>
+      </c>
+      <c r="B110">
+        <v>0.27105024512308895</v>
+      </c>
+      <c r="C110">
+        <v>0.27113211893858963</v>
+      </c>
+      <c r="D110">
+        <v>0.27152859724172684</v>
+      </c>
+      <c r="E110">
+        <v>0.27655357154082938</v>
+      </c>
+      <c r="F110">
+        <v>0.26707339338003144</v>
+      </c>
+      <c r="G110">
+        <v>0.26326226490775961</v>
+      </c>
+      <c r="H110">
+        <v>0.26228641356810328</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.26744392655457133</v>
+      </c>
+      <c r="B111">
+        <v>0.27685623854628089</v>
+      </c>
+      <c r="C111">
+        <v>0.27973150163932375</v>
+      </c>
+      <c r="D111">
+        <v>0.25662566889970206</v>
+      </c>
+      <c r="E111">
+        <v>0.28109736827590837</v>
+      </c>
+      <c r="F111">
+        <v>0.2640948757256199</v>
+      </c>
+      <c r="G111">
+        <v>0.25796926730354691</v>
+      </c>
+      <c r="H111">
+        <v>0.27070664865896671</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.25432790843097292</v>
+      </c>
+      <c r="B112">
+        <v>0.26107836948783303</v>
+      </c>
+      <c r="C112">
+        <v>0.26452867744089503</v>
+      </c>
+      <c r="D112">
+        <v>0.25571851540089219</v>
+      </c>
+      <c r="E112">
+        <v>0.26231123919617305</v>
+      </c>
+      <c r="F112">
+        <v>0.2558896825012732</v>
+      </c>
+      <c r="G112">
+        <v>0.258408859411631</v>
+      </c>
+      <c r="H112">
+        <v>0.25670709477776427</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.25763656773838584</v>
+      </c>
+      <c r="B113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H113">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.28437305042054112</v>
+      </c>
+      <c r="B114">
+        <v>0.2608425061912909</v>
+      </c>
+      <c r="C114">
+        <v>0.25668513877752552</v>
+      </c>
+      <c r="D114">
+        <v>0.25349967520218569</v>
+      </c>
+      <c r="E114">
+        <v>0.25449325105394183</v>
+      </c>
+      <c r="F114">
+        <v>0.2532999291238115</v>
+      </c>
+      <c r="G114">
+        <v>0.25913470563498753</v>
+      </c>
+      <c r="H114">
+        <v>0.2594493937749312</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.25545402068975048</v>
+      </c>
+      <c r="B115">
+        <v>0.26030076591692974</v>
+      </c>
+      <c r="C115">
+        <v>0.26174425456681405</v>
+      </c>
+      <c r="D115">
+        <v>0.25815010134113148</v>
+      </c>
+      <c r="E115">
+        <v>0.26360802892064661</v>
+      </c>
+      <c r="F115">
+        <v>0.25729802509599448</v>
+      </c>
+      <c r="G115">
+        <v>0.25813578095358314</v>
+      </c>
+      <c r="H115">
+        <v>0.25700858572897733</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0.25642783492673177</v>
+      </c>
+      <c r="B116">
+        <v>0.26060289793129793</v>
+      </c>
+      <c r="C116">
+        <v>0.26246052914025186</v>
+      </c>
+      <c r="D116">
+        <v>0.25409364345669644</v>
+      </c>
+      <c r="E116">
+        <v>0.26233837876715022</v>
+      </c>
+      <c r="F116">
+        <v>0.25566164952160786</v>
+      </c>
+      <c r="G116">
+        <v>0.25841104110014645</v>
+      </c>
+      <c r="H116">
+        <v>0.25675978818103634</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.25547618143735873</v>
+      </c>
+      <c r="B117">
+        <v>0.2590088819205365</v>
+      </c>
+      <c r="C117">
+        <v>0.26101516535163144</v>
+      </c>
+      <c r="D117">
+        <v>0.25203018287561879</v>
+      </c>
+      <c r="E117">
+        <v>0.2569282923052425</v>
+      </c>
+      <c r="F117">
+        <v>0.25427259536780983</v>
+      </c>
+      <c r="G117">
+        <v>0.25324023733278478</v>
+      </c>
+      <c r="H117">
+        <v>0.25701357062523217</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.25924541073893248</v>
+      </c>
+      <c r="B118">
+        <v>0.25621364641591343</v>
+      </c>
+      <c r="C118">
+        <v>0.25852043511291145</v>
+      </c>
+      <c r="D118">
+        <v>0.25211220660860656</v>
+      </c>
+      <c r="E118">
+        <v>0.25864411862619108</v>
+      </c>
+      <c r="F118">
+        <v>0.2548599428033394</v>
+      </c>
+      <c r="G118">
+        <v>0.25342003521526829</v>
+      </c>
+      <c r="H118">
+        <v>0.25819742896076431</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.2717965733326696</v>
+      </c>
+      <c r="B119">
+        <v>0.25891966735443928</v>
+      </c>
+      <c r="C119">
+        <v>0.25736010732549153</v>
+      </c>
+      <c r="D119">
+        <v>0.25389843507099996</v>
+      </c>
+      <c r="E119">
+        <v>0.25899248227185773</v>
+      </c>
+      <c r="F119">
+        <v>0.25583122595442453</v>
+      </c>
+      <c r="G119">
+        <v>0.2549676408746977</v>
+      </c>
+      <c r="H119">
+        <v>0.26079216039714287</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0.25311894625869341</v>
+      </c>
+      <c r="B120">
+        <v>0.25578330525913834</v>
+      </c>
+      <c r="C120">
+        <v>0.257860216153948</v>
+      </c>
+      <c r="D120">
+        <v>0.25406175007280712</v>
+      </c>
+      <c r="E120">
+        <v>0.25684643001368146</v>
+      </c>
+      <c r="F120">
+        <v>0.25318941365731429</v>
+      </c>
+      <c r="G120">
+        <v>0.25449325056534156</v>
+      </c>
+      <c r="H120">
+        <v>0.25248029498583596</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0.2851446284645871</v>
+      </c>
+      <c r="B121">
+        <v>0.26432102712921141</v>
+      </c>
+      <c r="C121">
+        <v>0.2615972974818257</v>
+      </c>
+      <c r="D121">
+        <v>0.25309684997033632</v>
+      </c>
+      <c r="E121">
+        <v>0.2586855992847083</v>
+      </c>
+      <c r="F121">
+        <v>0.25535282128856929</v>
+      </c>
+      <c r="G121">
+        <v>0.25372557644422034</v>
+      </c>
+      <c r="H121">
+        <v>0.25534316726810852</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0.2599985240965566</v>
+      </c>
+      <c r="B122">
+        <v>0.26053826960339127</v>
+      </c>
+      <c r="C122">
+        <v>0.26330128974643435</v>
+      </c>
+      <c r="D122">
+        <v>0.25390481863789155</v>
+      </c>
+      <c r="E122">
+        <v>0.26040962130024259</v>
+      </c>
+      <c r="F122">
+        <v>0.26082972030340007</v>
+      </c>
+      <c r="G122">
+        <v>0.25898284376815245</v>
+      </c>
+      <c r="H122">
+        <v>0.26767036402608452</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0.2697664405670846</v>
+      </c>
+      <c r="B123">
+        <v>0.24790047838745771</v>
+      </c>
+      <c r="C123">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D123">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E123">
+        <v>0.48373261962351027</v>
+      </c>
+      <c r="F123">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G123">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H123">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0.25545402068975048</v>
+      </c>
+      <c r="B124">
+        <v>0.26030076591692974</v>
+      </c>
+      <c r="C124">
+        <v>0.26174425456681405</v>
+      </c>
+      <c r="D124">
+        <v>0.25815010134113148</v>
+      </c>
+      <c r="E124">
+        <v>0.26360802892064661</v>
+      </c>
+      <c r="F124">
+        <v>0.25729802509599448</v>
+      </c>
+      <c r="G124">
+        <v>0.25813578095358314</v>
+      </c>
+      <c r="H124">
+        <v>0.25700858572897733</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0.25349504966813324</v>
+      </c>
+      <c r="B125">
+        <v>0.26091057329172551</v>
+      </c>
+      <c r="C125">
+        <v>0.26067893469023534</v>
+      </c>
+      <c r="D125">
+        <v>0.25919712417168256</v>
+      </c>
+      <c r="E125">
+        <v>0.26241669961298297</v>
+      </c>
+      <c r="F125">
+        <v>0.25431798631399288</v>
+      </c>
+      <c r="G125">
+        <v>0.25642007054837773</v>
+      </c>
+      <c r="H125">
+        <v>0.25517844497620989</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0.26194425318705278</v>
+      </c>
+      <c r="B126">
+        <v>0.2692476580136689</v>
+      </c>
+      <c r="C126">
+        <v>0.27311309301684278</v>
+      </c>
+      <c r="D126">
+        <v>0.25620227829067893</v>
+      </c>
+      <c r="E126">
+        <v>0.2795774073032144</v>
+      </c>
+      <c r="F126">
+        <v>0.27021807610692822</v>
+      </c>
+      <c r="G126">
+        <v>0.26893046275397492</v>
+      </c>
+      <c r="H126">
+        <v>0.28160938086119153</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.25244011577433711</v>
+      </c>
+      <c r="B127">
+        <v>0.2546676204163823</v>
+      </c>
+      <c r="C127">
+        <v>0.25578060212669762</v>
+      </c>
+      <c r="D127">
+        <v>0.25376550125944719</v>
+      </c>
+      <c r="E127">
+        <v>0.25489486644668125</v>
+      </c>
+      <c r="F127">
+        <v>0.25241078063774514</v>
+      </c>
+      <c r="G127">
+        <v>0.25373680844795266</v>
+      </c>
+      <c r="H127">
+        <v>0.25138624409385679</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0.26248331947649794</v>
+      </c>
+      <c r="B128">
+        <v>0.25948232197304572</v>
+      </c>
+      <c r="C128">
+        <v>0.25822382659237769</v>
+      </c>
+      <c r="D128">
+        <v>0.25378954628864792</v>
+      </c>
+      <c r="E128">
+        <v>0.26348358315443826</v>
+      </c>
+      <c r="F128">
+        <v>0.25255387942877705</v>
+      </c>
+      <c r="G128">
+        <v>0.25376446801079983</v>
+      </c>
+      <c r="H128">
+        <v>0.25702177050419278</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0.26132892508259736</v>
+      </c>
+      <c r="B129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="C129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="D129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="E129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="F129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="G129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="H129">
+        <v>0.24789674130619888</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0.25291716937489217</v>
+      </c>
+      <c r="B130">
+        <v>0.25677366275498514</v>
+      </c>
+      <c r="C130">
+        <v>0.25751864142722392</v>
+      </c>
+      <c r="D130">
+        <v>0.25469666281758124</v>
+      </c>
+      <c r="E130">
+        <v>0.25662010298583771</v>
+      </c>
+      <c r="F130">
+        <v>0.25349710176722967</v>
+      </c>
+      <c r="G130">
+        <v>0.25546535752512156</v>
+      </c>
+      <c r="H130">
+        <v>0.25270969290761075</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.25452798675175342</v>
+      </c>
+      <c r="B131">
+        <v>0.25400373531640319</v>
+      </c>
+      <c r="C131">
+        <v>0.25625573023954223</v>
+      </c>
+      <c r="D131">
+        <v>0.25416217525624141</v>
+      </c>
+      <c r="E131">
+        <v>0.2554708569292799</v>
+      </c>
+      <c r="F131">
+        <v>0.25420097421810484</v>
+      </c>
+      <c r="G131">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H131">
+        <v>0.25265221064168725</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.26266846176822944</v>
+      </c>
+      <c r="B132">
+        <v>0.26234367044615559</v>
+      </c>
+      <c r="C132">
+        <v>0.25930329442173877</v>
+      </c>
+      <c r="D132">
+        <v>0.25373277022939777</v>
+      </c>
+      <c r="E132">
+        <v>0.25738194928471309</v>
+      </c>
+      <c r="F132">
+        <v>0.25545516622654096</v>
+      </c>
+      <c r="G132">
+        <v>0.25417090356325639</v>
+      </c>
+      <c r="H132">
+        <v>0.26001914278569371</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.27636440357929781</v>
+      </c>
+      <c r="B133">
+        <v>0.26057723327389731</v>
+      </c>
+      <c r="C133">
+        <v>0.25861713324737667</v>
+      </c>
+      <c r="D133">
+        <v>0.25496598472309989</v>
+      </c>
+      <c r="E133">
+        <v>0.26632116637315506</v>
+      </c>
+      <c r="F133">
+        <v>0.25964388316277914</v>
+      </c>
+      <c r="G133">
+        <v>0.25496022515723571</v>
+      </c>
+      <c r="H133">
+        <v>0.26830726007567246</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.31297306783390794</v>
+      </c>
+      <c r="B134">
+        <v>0.19656725015802437</v>
+      </c>
+      <c r="C134">
+        <v>0.2475818932853025</v>
+      </c>
+      <c r="D134">
+        <v>0.25319076000079138</v>
+      </c>
+      <c r="E134">
+        <v>0.24989957164410079</v>
+      </c>
+      <c r="F134">
+        <v>0.21981628930637995</v>
+      </c>
+      <c r="G134">
+        <v>0.25222610664719897</v>
+      </c>
+      <c r="H134">
+        <v>0.25822942171946528</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.26101945801396254</v>
+      </c>
+      <c r="B135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H135">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.25919981916106988</v>
+      </c>
+      <c r="B136">
+        <v>0.26510205586499375</v>
+      </c>
+      <c r="C136">
+        <v>0.26430420719615572</v>
+      </c>
+      <c r="D136">
+        <v>0.25771829645689076</v>
+      </c>
+      <c r="E136">
+        <v>0.27004208268072621</v>
+      </c>
+      <c r="F136">
+        <v>0.25606361875778699</v>
+      </c>
+      <c r="G136">
+        <v>0.25650469748045912</v>
+      </c>
+      <c r="H136">
+        <v>0.25612332373828206</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.25329035128854965</v>
+      </c>
+      <c r="B137">
+        <v>0.25445600947936581</v>
+      </c>
+      <c r="C137">
+        <v>0.25715747062472677</v>
+      </c>
+      <c r="D137">
+        <v>0.25458817629092551</v>
+      </c>
+      <c r="E137">
+        <v>0.25667201067398243</v>
+      </c>
+      <c r="F137">
+        <v>0.25506358214924552</v>
+      </c>
+      <c r="G137">
+        <v>0.25566341427129757</v>
+      </c>
+      <c r="H137">
+        <v>0.25227169878936823</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.25177485482733386</v>
+      </c>
+      <c r="B138">
+        <v>0.24785093418902768</v>
+      </c>
+      <c r="C138">
+        <v>0.25635531993661381</v>
+      </c>
+      <c r="D138">
+        <v>0.25217916244541672</v>
+      </c>
+      <c r="E138">
+        <v>0.25298085738540527</v>
+      </c>
+      <c r="F138">
+        <v>0.24732768069677333</v>
+      </c>
+      <c r="G138">
+        <v>0.25312053010934377</v>
+      </c>
+      <c r="H138">
+        <v>0.26700100682050792</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.30562456543662009</v>
+      </c>
+      <c r="B139">
+        <v>0.26078614239778553</v>
+      </c>
+      <c r="C139">
+        <v>0.2560176367201159</v>
+      </c>
+      <c r="D139">
+        <v>0.26132622737973299</v>
+      </c>
+      <c r="E139">
+        <v>0.26491812466799242</v>
+      </c>
+      <c r="F139">
+        <v>0.26561319635871111</v>
+      </c>
+      <c r="G139">
+        <v>0.2583027964379504</v>
+      </c>
+      <c r="H139">
+        <v>0.25972214321544906</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.25186661029522484</v>
+      </c>
+      <c r="B140">
+        <v>0.25119189228601663</v>
+      </c>
+      <c r="C140">
+        <v>0.25160329488140476</v>
+      </c>
+      <c r="D140">
+        <v>0.2483313086480122</v>
+      </c>
+      <c r="E140">
+        <v>0.25227267178324064</v>
+      </c>
+      <c r="F140">
+        <v>0.24912604114762527</v>
+      </c>
+      <c r="G140">
+        <v>0.25053066366661569</v>
+      </c>
+      <c r="H140">
+        <v>0.25179884361106786</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.30284252317824029</v>
+      </c>
+      <c r="B141">
+        <v>0.2592250033724699</v>
+      </c>
+      <c r="C141">
+        <v>0.26169578838693336</v>
+      </c>
+      <c r="D141">
+        <v>0.25883811820419</v>
+      </c>
+      <c r="E141">
+        <v>0.26400259319722669</v>
+      </c>
+      <c r="F141">
+        <v>0.25840398199545506</v>
+      </c>
+      <c r="G141">
+        <v>0.25575979268158383</v>
+      </c>
+      <c r="H141">
+        <v>0.26009344323355332</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.25708127680000292</v>
+      </c>
+      <c r="B142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H142">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.26172657024705404</v>
+      </c>
+      <c r="B143">
+        <v>0.26535198277303956</v>
+      </c>
+      <c r="C143">
+        <v>0.2659331679280823</v>
+      </c>
+      <c r="D143">
+        <v>0.25974944237680508</v>
+      </c>
+      <c r="E143">
+        <v>0.26080541956983783</v>
+      </c>
+      <c r="F143">
+        <v>0.25959099824923004</v>
+      </c>
+      <c r="G143">
+        <v>0.26049118224307966</v>
+      </c>
+      <c r="H143">
+        <v>0.25282839376700628</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.26121691283800308</v>
+      </c>
+      <c r="B144">
+        <v>0.2723182367262566</v>
+      </c>
+      <c r="C144">
+        <v>0.25490399199415775</v>
+      </c>
+      <c r="D144">
+        <v>0.25817646161471269</v>
+      </c>
+      <c r="E144">
+        <v>0.2621746947137405</v>
+      </c>
+      <c r="F144">
+        <v>0.25364976325775629</v>
+      </c>
+      <c r="G144">
+        <v>0.25310485747058881</v>
+      </c>
+      <c r="H144">
+        <v>0.26302898120743701</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.25351269440843527</v>
+      </c>
+      <c r="B145">
+        <v>0.25691908323550205</v>
+      </c>
+      <c r="C145">
+        <v>0.25819696574578233</v>
+      </c>
+      <c r="D145">
+        <v>0.25358295831599742</v>
+      </c>
+      <c r="E145">
+        <v>0.25430442738749959</v>
+      </c>
+      <c r="F145">
+        <v>0.25365835578528684</v>
+      </c>
+      <c r="G145">
+        <v>0.25522188072858681</v>
+      </c>
+      <c r="H145">
+        <v>0.25064594963654291</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.26322066750476741</v>
+      </c>
+      <c r="B146">
+        <v>0.25287737980681757</v>
+      </c>
+      <c r="C146">
+        <v>0.25276916802245897</v>
+      </c>
+      <c r="D146">
+        <v>0.2525005083195126</v>
+      </c>
+      <c r="E146">
+        <v>0.25452055659485179</v>
+      </c>
+      <c r="F146">
+        <v>0.2544556463256647</v>
+      </c>
+      <c r="G146">
+        <v>0.25275245491386689</v>
+      </c>
+      <c r="H146">
+        <v>0.25618119748873897</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.25412032764069864</v>
+      </c>
+      <c r="B147">
+        <v>0.25744008624205272</v>
+      </c>
+      <c r="C147">
+        <v>0.25445635503658054</v>
+      </c>
+      <c r="D147">
+        <v>0.25099288445214507</v>
+      </c>
+      <c r="E147">
+        <v>0.2531380204778072</v>
+      </c>
+      <c r="F147">
+        <v>0.25458279349114005</v>
+      </c>
+      <c r="G147">
+        <v>0.25543269097617194</v>
+      </c>
+      <c r="H147">
+        <v>0.26061329075512518</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.25525133968995672</v>
+      </c>
+      <c r="B148">
+        <v>0.25346673348683435</v>
+      </c>
+      <c r="C148">
+        <v>0.25463504598484121</v>
+      </c>
+      <c r="D148">
+        <v>0.25298799168109559</v>
+      </c>
+      <c r="E148">
+        <v>0.25404679858191681</v>
+      </c>
+      <c r="F148">
+        <v>0.25429357067577935</v>
+      </c>
+      <c r="G148">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H148">
+        <v>0.25169074552328746</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.25629195088551104</v>
+      </c>
+      <c r="B149">
+        <v>0.2577174762765248</v>
+      </c>
+      <c r="C149">
+        <v>0.2590477415924653</v>
+      </c>
+      <c r="D149">
+        <v>0.25334455003901707</v>
+      </c>
+      <c r="E149">
+        <v>0.25844720970257856</v>
+      </c>
+      <c r="F149">
+        <v>0.25536171575039518</v>
+      </c>
+      <c r="G149">
+        <v>0.25594074298595493</v>
+      </c>
+      <c r="H149">
+        <v>0.26240924668493998</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.25054548413810984</v>
+      </c>
+      <c r="B150">
+        <v>0.25134022406114548</v>
+      </c>
+      <c r="C150">
+        <v>0.25231108351319093</v>
+      </c>
+      <c r="D150">
+        <v>0.25079302569292838</v>
+      </c>
+      <c r="E150">
+        <v>0.25185758525357144</v>
+      </c>
+      <c r="F150">
+        <v>0.25135716162416116</v>
+      </c>
+      <c r="G150">
+        <v>0.25120278247762845</v>
+      </c>
+      <c r="H150">
+        <v>0.25048250270171135</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.25718874970106381</v>
+      </c>
+      <c r="B151">
+        <v>0.25326792902562112</v>
+      </c>
+      <c r="C151">
+        <v>0.25413360888732223</v>
+      </c>
+      <c r="D151">
+        <v>0.25220723616272228</v>
+      </c>
+      <c r="E151">
+        <v>0.2544462671920365</v>
+      </c>
+      <c r="F151">
+        <v>0.25310610100961484</v>
+      </c>
+      <c r="G151">
+        <v>0.2508681208941303</v>
+      </c>
+      <c r="H151">
+        <v>0.25457928807175328</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.31281158131847075</v>
+      </c>
+      <c r="B152">
+        <v>0.26250935843682133</v>
+      </c>
+      <c r="C152">
+        <v>0.26284271808755105</v>
+      </c>
+      <c r="D152">
+        <v>0.26380764855058192</v>
+      </c>
+      <c r="E152">
+        <v>0.2646173298243652</v>
+      </c>
+      <c r="F152">
+        <v>0.26277054518334092</v>
+      </c>
+      <c r="G152">
+        <v>0.26169566648713966</v>
+      </c>
+      <c r="H152">
+        <v>0.26065536304362608</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.31375624024538479</v>
+      </c>
+      <c r="B153">
+        <v>0.26152557978202062</v>
+      </c>
+      <c r="C153">
+        <v>0.26176731992593416</v>
+      </c>
+      <c r="D153">
+        <v>0.2630924350396357</v>
+      </c>
+      <c r="E153">
+        <v>0.26613771197047353</v>
+      </c>
+      <c r="F153">
+        <v>0.26270720106626155</v>
+      </c>
+      <c r="G153">
+        <v>0.25899136561299824</v>
+      </c>
+      <c r="H153">
+        <v>0.25804789472621825</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.25763656773838584</v>
+      </c>
+      <c r="B154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H154">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.29668521285114785</v>
+      </c>
+      <c r="B155">
+        <v>0.26517007962335076</v>
+      </c>
+      <c r="C155">
+        <v>0.25633393475764893</v>
+      </c>
+      <c r="D155">
+        <v>0.25383243365500641</v>
+      </c>
+      <c r="E155">
+        <v>0.25378496999139977</v>
+      </c>
+      <c r="F155">
+        <v>0.25279569477933328</v>
+      </c>
+      <c r="G155">
+        <v>0.2589770058655283</v>
+      </c>
+      <c r="H155">
+        <v>0.26330437372828103</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.25437024270721448</v>
+      </c>
+      <c r="B156">
+        <v>0.25677123235406157</v>
+      </c>
+      <c r="C156">
+        <v>0.2534344563374602</v>
+      </c>
+      <c r="D156">
+        <v>0.25141025605748446</v>
+      </c>
+      <c r="E156">
+        <v>0.25194078553250931</v>
+      </c>
+      <c r="F156">
+        <v>0.25368204521483922</v>
+      </c>
+      <c r="G156">
+        <v>0.25496714315517721</v>
+      </c>
+      <c r="H156">
+        <v>0.26783675721464978</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.2582962987960099</v>
+      </c>
+      <c r="B157">
+        <v>0.2601916385273893</v>
+      </c>
+      <c r="C157">
+        <v>0.26740865524969615</v>
+      </c>
+      <c r="D157">
+        <v>0.25891377091738271</v>
+      </c>
+      <c r="E157">
+        <v>0.27211745835528151</v>
+      </c>
+      <c r="F157">
+        <v>0.26793966781914613</v>
+      </c>
+      <c r="G157">
+        <v>0.2601731560755276</v>
+      </c>
+      <c r="H157">
+        <v>0.28126972196814914</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.25636665821794802</v>
+      </c>
+      <c r="B158">
+        <v>0.22608354228040017</v>
+      </c>
+      <c r="C158">
+        <v>0.25524311791086629</v>
+      </c>
+      <c r="D158">
+        <v>0.25344488517289904</v>
+      </c>
+      <c r="E158">
+        <v>0.26268420591614949</v>
+      </c>
+      <c r="F158">
+        <v>0.23161999252246215</v>
+      </c>
+      <c r="G158">
+        <v>0.25313813543237296</v>
+      </c>
+      <c r="H158">
+        <v>0.25730083066872672</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.25492850031095682</v>
+      </c>
+      <c r="B159">
+        <v>0.25908672419718237</v>
+      </c>
+      <c r="C159">
+        <v>0.25309932131789042</v>
+      </c>
+      <c r="D159">
+        <v>0.25134133577585605</v>
+      </c>
+      <c r="E159">
+        <v>0.25300735572962096</v>
+      </c>
+      <c r="F159">
+        <v>0.25202717273859088</v>
+      </c>
+      <c r="G159">
+        <v>0.25352058016344425</v>
+      </c>
+      <c r="H159">
+        <v>0.26212249481771327</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.28650012246547768</v>
+      </c>
+      <c r="B160">
+        <v>0.25987677454442643</v>
+      </c>
+      <c r="C160">
+        <v>0.26292258003746966</v>
+      </c>
+      <c r="D160">
+        <v>0.25608069751850693</v>
+      </c>
+      <c r="E160">
+        <v>0.26148735857758776</v>
+      </c>
+      <c r="F160">
+        <v>0.25654715662880512</v>
+      </c>
+      <c r="G160">
+        <v>0.25761694979141403</v>
+      </c>
+      <c r="H160">
+        <v>0.25707459354844109</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.32068465292486353</v>
+      </c>
+      <c r="B161">
+        <v>0.26211727867364237</v>
+      </c>
+      <c r="C161">
+        <v>0.25735209997471598</v>
+      </c>
+      <c r="D161">
+        <v>0.25616367223669556</v>
+      </c>
+      <c r="E161">
+        <v>0.25424917645592243</v>
+      </c>
+      <c r="F161">
+        <v>0.25415873563114771</v>
+      </c>
+      <c r="G161">
+        <v>0.25524792693599407</v>
+      </c>
+      <c r="H161">
+        <v>0.26182002502078816</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.25436111681319507</v>
+      </c>
+      <c r="B162">
+        <v>0.25297209918804553</v>
+      </c>
+      <c r="C162">
+        <v>0.25289236642470619</v>
+      </c>
+      <c r="D162">
+        <v>0.25396141526961297</v>
+      </c>
+      <c r="E162">
+        <v>0.25240882860563046</v>
+      </c>
+      <c r="F162">
+        <v>0.25187458747128583</v>
+      </c>
+      <c r="G162">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H162">
+        <v>0.25125686619540682</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.26399366831277138</v>
+      </c>
+      <c r="B163">
+        <v>0.25519657787577604</v>
+      </c>
+      <c r="C163">
+        <v>0.25874545039994018</v>
+      </c>
+      <c r="D163">
+        <v>0.25352644173864725</v>
+      </c>
+      <c r="E163">
+        <v>0.25491276304779398</v>
+      </c>
+      <c r="F163">
+        <v>0.25310217979797273</v>
+      </c>
+      <c r="G163">
+        <v>0.2578491968270748</v>
+      </c>
+      <c r="H163">
+        <v>0.25713752134910051</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.25293843161534602</v>
+      </c>
+      <c r="B164">
+        <v>0.25676804319913349</v>
+      </c>
+      <c r="C164">
+        <v>0.25814466321569296</v>
+      </c>
+      <c r="D164">
+        <v>0.2574052732152341</v>
+      </c>
+      <c r="E164">
+        <v>0.2576300095256181</v>
+      </c>
+      <c r="F164">
+        <v>0.25506869719627001</v>
+      </c>
+      <c r="G164">
+        <v>0.25639829113153789</v>
+      </c>
+      <c r="H164">
+        <v>0.25501477919334609</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.25618668070430689</v>
+      </c>
+      <c r="B165">
+        <v>0.26310342666440606</v>
+      </c>
+      <c r="C165">
+        <v>0.25635161202457979</v>
+      </c>
+      <c r="D165">
+        <v>0.25173499998940935</v>
+      </c>
+      <c r="E165">
+        <v>0.25275164632222274</v>
+      </c>
+      <c r="F165">
+        <v>0.25439600642758037</v>
+      </c>
+      <c r="G165">
+        <v>0.25484614845542175</v>
+      </c>
+      <c r="H165">
+        <v>0.25669954459227939</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.3150767632818321</v>
+      </c>
+      <c r="B166">
+        <v>0.26658832510143288</v>
+      </c>
+      <c r="C166">
+        <v>0.26668233710683148</v>
+      </c>
+      <c r="D166">
+        <v>0.26554365673346175</v>
+      </c>
+      <c r="E166">
+        <v>0.26964254584895914</v>
+      </c>
+      <c r="F166">
+        <v>0.26327716017934472</v>
+      </c>
+      <c r="G166">
+        <v>0.26043969470669037</v>
+      </c>
+      <c r="H166">
+        <v>0.26223266203173617</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.27579804717991241</v>
+      </c>
+      <c r="B167">
+        <v>0.2172260943990916</v>
+      </c>
+      <c r="C167">
+        <v>0.26215457694175298</v>
+      </c>
+      <c r="D167">
+        <v>0.35554385190202364</v>
+      </c>
+      <c r="E167">
+        <v>0.33326653290695335</v>
+      </c>
+      <c r="F167">
+        <v>0.22979961516093278</v>
+      </c>
+      <c r="G167">
+        <v>0.2793468817400232</v>
+      </c>
+      <c r="H167">
+        <v>0.27552859034576638</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.25674393654183469</v>
+      </c>
+      <c r="B168">
+        <v>0.25719971249159645</v>
+      </c>
+      <c r="C168">
+        <v>0.25693382612553001</v>
+      </c>
+      <c r="D168">
+        <v>0.25244045996785447</v>
+      </c>
+      <c r="E168">
+        <v>0.25639553488368744</v>
+      </c>
+      <c r="F168">
+        <v>0.25588615486168037</v>
+      </c>
+      <c r="G168">
+        <v>0.25495759799120177</v>
+      </c>
+      <c r="H168">
+        <v>0.2616264955648952</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.25347809509839941</v>
+      </c>
+      <c r="B169">
+        <v>0.25117225016973849</v>
+      </c>
+      <c r="C169">
+        <v>0.25152282542052817</v>
+      </c>
+      <c r="D169">
+        <v>0.25129452429157734</v>
+      </c>
+      <c r="E169">
+        <v>0.25179332444831815</v>
+      </c>
+      <c r="F169">
+        <v>0.25175192204039326</v>
+      </c>
+      <c r="G169">
+        <v>0.25182767573736803</v>
+      </c>
+      <c r="H169">
+        <v>0.25385673068350934</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.26923288991271627</v>
+      </c>
+      <c r="B170">
+        <v>0.21805337013215084</v>
+      </c>
+      <c r="C170">
+        <v>0.25815362213207577</v>
+      </c>
+      <c r="D170">
+        <v>0.29155994930969492</v>
+      </c>
+      <c r="E170">
+        <v>0.27226157201845663</v>
+      </c>
+      <c r="F170">
+        <v>0.21903018598181972</v>
+      </c>
+      <c r="G170">
+        <v>0.25885115064601538</v>
+      </c>
+      <c r="H170">
+        <v>0.27289554141084366</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.26363923307002007</v>
+      </c>
+      <c r="B171">
+        <v>0.26864505392304228</v>
+      </c>
+      <c r="C171">
+        <v>0.25847925725435639</v>
+      </c>
+      <c r="D171">
+        <v>0.25267945832057292</v>
+      </c>
+      <c r="E171">
+        <v>0.25552302109228037</v>
+      </c>
+      <c r="F171">
+        <v>0.25343127212123578</v>
+      </c>
+      <c r="G171">
+        <v>0.2569453871278537</v>
+      </c>
+      <c r="H171">
+        <v>0.25739600085525366</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.31031707593763275</v>
+      </c>
+      <c r="B172">
+        <v>0.2624106487079424</v>
+      </c>
+      <c r="C172">
+        <v>0.26152995817051794</v>
+      </c>
+      <c r="D172">
+        <v>0.31198931690213855</v>
+      </c>
+      <c r="E172">
+        <v>0.26741517763183481</v>
+      </c>
+      <c r="F172">
+        <v>0.25938048459164881</v>
+      </c>
+      <c r="G172">
+        <v>0.2557835846108511</v>
+      </c>
+      <c r="H172">
+        <v>0.26333396418321836</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.30458375873058308</v>
+      </c>
+      <c r="B173">
+        <v>0.26330148103366946</v>
+      </c>
+      <c r="C173">
+        <v>0.26283604669214389</v>
+      </c>
+      <c r="D173">
+        <v>0.26182777043975414</v>
+      </c>
+      <c r="E173">
+        <v>0.26578779912162448</v>
+      </c>
+      <c r="F173">
+        <v>0.26373654921181117</v>
+      </c>
+      <c r="G173">
+        <v>0.2573348375854812</v>
+      </c>
+      <c r="H173">
+        <v>0.25975476712774825</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.25579793270962098</v>
+      </c>
+      <c r="B174">
+        <v>0.26274377202567234</v>
+      </c>
+      <c r="C174">
+        <v>0.2611976995336045</v>
+      </c>
+      <c r="D174">
+        <v>0.25740997398421561</v>
+      </c>
+      <c r="E174">
+        <v>0.27833306984316192</v>
+      </c>
+      <c r="F174">
+        <v>0.25670485794867337</v>
+      </c>
+      <c r="G174">
+        <v>0.25706427069120524</v>
+      </c>
+      <c r="H174">
+        <v>0.26138865435343928</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.2537291849921211</v>
+      </c>
+      <c r="B175">
+        <v>0.25056911622955452</v>
+      </c>
+      <c r="C175">
+        <v>0.25266005708593414</v>
+      </c>
+      <c r="D175">
+        <v>0.25140414501087111</v>
+      </c>
+      <c r="E175">
+        <v>0.25357491106492736</v>
+      </c>
+      <c r="F175">
+        <v>0.25268077828786228</v>
+      </c>
+      <c r="G175">
+        <v>0.25251905923715712</v>
+      </c>
+      <c r="H175">
+        <v>0.25889324811848585</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.25473140358382068</v>
+      </c>
+      <c r="B176">
+        <v>0.26647933702139059</v>
+      </c>
+      <c r="C176">
+        <v>0.26189247622055095</v>
+      </c>
+      <c r="D176">
+        <v>0.25353075469413672</v>
+      </c>
+      <c r="E176">
+        <v>0.25812658104663999</v>
+      </c>
+      <c r="F176">
+        <v>0.25333290215688986</v>
+      </c>
+      <c r="G176">
+        <v>0.25378287533074634</v>
+      </c>
+      <c r="H176">
+        <v>0.26164490268864105</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.31117883885608555</v>
+      </c>
+      <c r="B177">
+        <v>0.2660157534614393</v>
+      </c>
+      <c r="C177">
+        <v>0.26658752485309689</v>
+      </c>
+      <c r="D177">
+        <v>0.25530683936284587</v>
+      </c>
+      <c r="E177">
+        <v>0.25822165011674136</v>
+      </c>
+      <c r="F177">
+        <v>0.25561142674627885</v>
+      </c>
+      <c r="G177">
+        <v>0.26338415979814095</v>
+      </c>
+      <c r="H177">
+        <v>0.26352616249853583</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.25239573235788104</v>
+      </c>
+      <c r="B178">
+        <v>0.25193316148807521</v>
+      </c>
+      <c r="C178">
+        <v>0.25444575124093433</v>
+      </c>
+      <c r="D178">
+        <v>0.25270480830035569</v>
+      </c>
+      <c r="E178">
+        <v>0.25346407385785064</v>
+      </c>
+      <c r="F178">
+        <v>0.25258626435999321</v>
+      </c>
+      <c r="G178">
+        <v>0.24789673987618357</v>
+      </c>
+      <c r="H178">
+        <v>0.25124421361512406</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.25893436146176696</v>
+      </c>
+      <c r="B179">
+        <v>0.26446018315032099</v>
+      </c>
+      <c r="C179">
+        <v>0.25686365648390863</v>
+      </c>
+      <c r="D179">
+        <v>0.25500859732572978</v>
+      </c>
+      <c r="E179">
+        <v>0.26123580946519176</v>
+      </c>
+      <c r="F179">
+        <v>0.25961313744768905</v>
+      </c>
+      <c r="G179">
+        <v>0.25635911425459207</v>
+      </c>
+      <c r="H179">
+        <v>0.27130751549249643</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.26204254924922454</v>
+      </c>
+      <c r="B180">
+        <v>0.2239208091144769</v>
+      </c>
+      <c r="C180">
+        <v>0.25816549175935677</v>
+      </c>
+      <c r="D180">
+        <v>0.25272792797155086</v>
+      </c>
+      <c r="E180">
+        <v>0.255215029711029</v>
+      </c>
+      <c r="F180">
+        <v>0.23585358307785312</v>
+      </c>
+      <c r="G180">
+        <v>0.2545857833751145</v>
+      </c>
+      <c r="H180">
+        <v>0.2734668476855619</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.25468015347103545</v>
+      </c>
+      <c r="B1">
+        <v>0.2549463981672449</v>
+      </c>
+      <c r="C1">
+        <v>0.25451245962002683</v>
+      </c>
+      <c r="D1">
+        <v>0.25366540355273781</v>
+      </c>
+      <c r="E1">
+        <v>0.25153533939652456</v>
+      </c>
+      <c r="F1">
+        <v>0.25287290938593604</v>
+      </c>
+      <c r="G1">
+        <v>0.25358906255133767</v>
+      </c>
+      <c r="H1">
+        <v>0.24923212858322588</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25170677611729619</v>
+      </c>
+      <c r="B2">
+        <v>0.25575678330367407</v>
+      </c>
+      <c r="C2">
+        <v>0.25630035013201902</v>
+      </c>
+      <c r="D2">
+        <v>0.25101957076585724</v>
+      </c>
+      <c r="E2">
+        <v>0.25425031607480675</v>
+      </c>
+      <c r="F2">
+        <v>0.25234652463194324</v>
+      </c>
+      <c r="G2">
+        <v>0.25457932471675293</v>
+      </c>
+      <c r="H2">
+        <v>0.27516252908776179</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.25197448019412333</v>
+      </c>
+      <c r="B3">
+        <v>0.25447793551942022</v>
+      </c>
+      <c r="C3">
+        <v>0.25337349655701197</v>
+      </c>
+      <c r="D3">
+        <v>0.25286786087703639</v>
+      </c>
+      <c r="E3">
+        <v>0.25296653260909907</v>
+      </c>
+      <c r="F3">
+        <v>0.25314979815377564</v>
+      </c>
+      <c r="G3">
+        <v>0.25364862229445867</v>
+      </c>
+      <c r="H3">
+        <v>0.25280756945479821</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25432790843097292</v>
+      </c>
+      <c r="B4">
+        <v>0.26107836948783303</v>
+      </c>
+      <c r="C4">
+        <v>0.26452867744089503</v>
+      </c>
+      <c r="D4">
+        <v>0.25571851540089219</v>
+      </c>
+      <c r="E4">
+        <v>0.26231123919617305</v>
+      </c>
+      <c r="F4">
+        <v>0.2558896825012732</v>
+      </c>
+      <c r="G4">
+        <v>0.258408859411631</v>
+      </c>
+      <c r="H4">
+        <v>0.25670709477776427</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.27029514510023073</v>
+      </c>
+      <c r="B5">
+        <v>0.26068477330835399</v>
+      </c>
+      <c r="C5">
+        <v>0.26008450511670389</v>
+      </c>
+      <c r="D5">
+        <v>0.25970400358013768</v>
+      </c>
+      <c r="E5">
+        <v>0.80042474023571153</v>
+      </c>
+      <c r="F5">
+        <v>0.25919268088519859</v>
+      </c>
+      <c r="G5">
+        <v>0.26158810883391992</v>
+      </c>
+      <c r="H5">
+        <v>0.30567582694014833</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.25298519662955971</v>
+      </c>
+      <c r="B6">
+        <v>0.25220141069547297</v>
+      </c>
+      <c r="C6">
+        <v>0.25316426789685215</v>
+      </c>
+      <c r="D6">
+        <v>0.56026743031589943</v>
+      </c>
+      <c r="E6">
+        <v>0.25301001471987961</v>
+      </c>
+      <c r="F6">
+        <v>0.25208775056084542</v>
+      </c>
+      <c r="G6">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H6">
+        <v>0.25020680915013732</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.25297755311356168</v>
+      </c>
+      <c r="B7">
+        <v>0.25667039805226471</v>
+      </c>
+      <c r="C7">
+        <v>0.25413693851558755</v>
+      </c>
+      <c r="D7">
+        <v>0.25185969385223855</v>
+      </c>
+      <c r="E7">
+        <v>0.25582482043144833</v>
+      </c>
+      <c r="F7">
+        <v>0.25379981955896935</v>
+      </c>
+      <c r="G7">
+        <v>0.25312311417079231</v>
+      </c>
+      <c r="H7">
+        <v>0.26539660623978539</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.27367923266748934</v>
+      </c>
+      <c r="B8">
+        <v>0.25523190842189514</v>
+      </c>
+      <c r="C8">
+        <v>0.25634216949381394</v>
+      </c>
+      <c r="D8">
+        <v>0.25267363447725499</v>
+      </c>
+      <c r="E8">
+        <v>0.25549069123633877</v>
+      </c>
+      <c r="F8">
+        <v>0.25504306863609988</v>
+      </c>
+      <c r="G8">
+        <v>0.25393208470559203</v>
+      </c>
+      <c r="H8">
+        <v>0.25976760031687579</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.32495150864508471</v>
+      </c>
+      <c r="B9">
+        <v>0.26558189869098903</v>
+      </c>
+      <c r="C9">
+        <v>0.26650651823761723</v>
+      </c>
+      <c r="D9">
+        <v>0.26327751336597599</v>
+      </c>
+      <c r="E9">
+        <v>0.2691435953555954</v>
+      </c>
+      <c r="F9">
+        <v>0.26174325281712074</v>
+      </c>
+      <c r="G9">
+        <v>0.26269530285369364</v>
+      </c>
+      <c r="H9">
+        <v>0.25997150954077225</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.25675592256032259</v>
+      </c>
+      <c r="B10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="C10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="D10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="E10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="F10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="G10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="H10">
+        <v>0.24790052512673633</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.25642783492673177</v>
+      </c>
+      <c r="B11">
+        <v>0.26060289793129793</v>
+      </c>
+      <c r="C11">
+        <v>0.26246052914025186</v>
+      </c>
+      <c r="D11">
+        <v>0.25409364345669644</v>
+      </c>
+      <c r="E11">
+        <v>0.26233837876715022</v>
+      </c>
+      <c r="F11">
+        <v>0.25566164952160786</v>
+      </c>
+      <c r="G11">
+        <v>0.25841104110014645</v>
+      </c>
+      <c r="H11">
+        <v>0.25675978818103634</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.26270809579583887</v>
+      </c>
+      <c r="B12">
+        <v>0.26439373552885409</v>
+      </c>
+      <c r="C12">
+        <v>0.25945751404385292</v>
+      </c>
+      <c r="D12">
+        <v>0.25620584916840278</v>
+      </c>
+      <c r="E12">
+        <v>0.26800342424381762</v>
+      </c>
+      <c r="F12">
+        <v>0.25748227079130864</v>
+      </c>
+      <c r="G12">
+        <v>0.25653990467763821</v>
+      </c>
+      <c r="H12">
+        <v>0.27145293041703378</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.25573571149677576</v>
+      </c>
+      <c r="B13">
+        <v>0.25938718531954347</v>
+      </c>
+      <c r="C13">
+        <v>0.25510640007740337</v>
+      </c>
+      <c r="D13">
+        <v>0.25268850953624356</v>
+      </c>
+      <c r="E13">
+        <v>0.25442842481750672</v>
+      </c>
+      <c r="F13">
+        <v>0.25351936443472334</v>
+      </c>
+      <c r="G13">
+        <v>0.25375059747194206</v>
+      </c>
+      <c r="H13">
+        <v>0.26724280245037418</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.23989942762223346</v>
+      </c>
+      <c r="B14">
+        <v>0.18575044125307505</v>
+      </c>
+      <c r="C14">
+        <v>0.24371771300069542</v>
+      </c>
+      <c r="D14">
+        <v>0.25141592558594344</v>
+      </c>
+      <c r="E14">
+        <v>0.24880379783077031</v>
+      </c>
+      <c r="F14">
+        <v>0.19550021733281103</v>
+      </c>
+      <c r="G14">
+        <v>0.24865593214410261</v>
+      </c>
+      <c r="H14">
+        <v>0.25102907778847938</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.25524349060964446</v>
+      </c>
+      <c r="B15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="C15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="D15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="E15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="F15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="G15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="H15">
+        <v>0.24790052512673624</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.25151530292984353</v>
+      </c>
+      <c r="B16">
+        <v>0.25156430611517411</v>
+      </c>
+      <c r="C16">
+        <v>0.2612483115426058</v>
+      </c>
+      <c r="D16">
+        <v>0.25030543881746664</v>
+      </c>
+      <c r="E16">
+        <v>0.25532865350918899</v>
+      </c>
+      <c r="F16">
+        <v>0.25113080856826714</v>
+      </c>
+      <c r="G16">
+        <v>0.25634681271538151</v>
+      </c>
+      <c r="H16">
+        <v>0.25119451163090467</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.25559970547408578</v>
+      </c>
+      <c r="B17">
+        <v>0.26000674463968093</v>
+      </c>
+      <c r="C17">
+        <v>0.25950539908750569</v>
+      </c>
+      <c r="D17">
+        <v>0.26040022217547115</v>
+      </c>
+      <c r="E17">
+        <v>0.26023658863596133</v>
+      </c>
+      <c r="F17">
+        <v>0.25954152475312164</v>
+      </c>
+      <c r="G17">
+        <v>0.25964468849171812</v>
+      </c>
+      <c r="H17">
+        <v>0.26261913189335889</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.27117147139957071</v>
+      </c>
+      <c r="B18">
+        <v>0.27082742312483876</v>
+      </c>
+      <c r="C18">
+        <v>0.26786473110961107</v>
+      </c>
+      <c r="D18">
+        <v>0.26384512959869816</v>
+      </c>
+      <c r="E18">
+        <v>0.27203420802298811</v>
+      </c>
+      <c r="F18">
+        <v>0.27102054756579791</v>
+      </c>
+      <c r="G18">
+        <v>0.26656992975565635</v>
+      </c>
+      <c r="H18">
+        <v>0.2895376726757532</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.25515908602741472</v>
+      </c>
+      <c r="B19">
+        <v>0.25708082425501533</v>
+      </c>
+      <c r="C19">
+        <v>0.25388580044775222</v>
+      </c>
+      <c r="D19">
+        <v>0.25377994325495468</v>
+      </c>
+      <c r="E19">
+        <v>0.25857742045580867</v>
+      </c>
+      <c r="F19">
+        <v>0.25479100415118899</v>
+      </c>
+      <c r="G19">
+        <v>0.25320961046422413</v>
+      </c>
+      <c r="H19">
+        <v>0.25775259153029811</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.25544441135546397</v>
+      </c>
+      <c r="B20">
+        <v>0.25725233775924772</v>
+      </c>
+      <c r="C20">
+        <v>0.25386355610982514</v>
+      </c>
+      <c r="D20">
+        <v>0.25086472052102798</v>
+      </c>
+      <c r="E20">
+        <v>0.25270356353002882</v>
+      </c>
+      <c r="F20">
+        <v>0.25227948967078828</v>
+      </c>
+      <c r="G20">
+        <v>0.25316159839796909</v>
+      </c>
+      <c r="H20">
+        <v>0.26449978124497064</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>0.25735989821464889</v>
       </c>
+      <c r="B21">
+        <v>0.25552897580273276</v>
+      </c>
+      <c r="C21">
+        <v>0.25725970664677777</v>
+      </c>
+      <c r="D21">
+        <v>0.25193668903794569</v>
+      </c>
+      <c r="E21">
+        <v>0.25731741998436625</v>
+      </c>
+      <c r="F21">
+        <v>0.2527522737764783</v>
+      </c>
+      <c r="G21">
+        <v>0.25165173117628614</v>
+      </c>
+      <c r="H21">
+        <v>0.25674316140419984</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.25945140831837582</v>
+      </c>
+      <c r="B22">
+        <v>0.26828145159807271</v>
+      </c>
+      <c r="C22">
+        <v>0.2581442474665348</v>
+      </c>
+      <c r="D22">
+        <v>0.25761583957938627</v>
+      </c>
+      <c r="E22">
+        <v>0.25859789563741831</v>
+      </c>
+      <c r="F22">
+        <v>0.25709236592987023</v>
+      </c>
+      <c r="G22">
+        <v>0.25995492560468247</v>
+      </c>
+      <c r="H22">
+        <v>0.27128135088690736</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.25513317693692122</v>
+      </c>
+      <c r="B23">
+        <v>0.2588226692065545</v>
+      </c>
+      <c r="C23">
+        <v>0.25554512927425155</v>
+      </c>
+      <c r="D23">
+        <v>0.25424949448451195</v>
+      </c>
+      <c r="E23">
+        <v>0.25582259459956913</v>
+      </c>
+      <c r="F23">
+        <v>0.25297345898308238</v>
+      </c>
+      <c r="G23">
+        <v>0.25320944323895628</v>
+      </c>
+      <c r="H23">
+        <v>0.30217758371579762</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.25755931003613741</v>
+      </c>
+      <c r="B24">
+        <v>0.26426134230600251</v>
+      </c>
+      <c r="C24">
+        <v>0.26326145486827535</v>
+      </c>
+      <c r="D24">
+        <v>0.26018625521908456</v>
+      </c>
+      <c r="E24">
+        <v>0.26489782276968377</v>
+      </c>
+      <c r="F24">
+        <v>0.25592733819029523</v>
+      </c>
+      <c r="G24">
+        <v>0.25633394034386386</v>
+      </c>
+      <c r="H24">
+        <v>0.25820308307395445</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.25230600736006664</v>
+      </c>
+      <c r="B25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="C25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="D25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="E25">
+        <v>0.24895946341948966</v>
+      </c>
+      <c r="F25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="G25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="H25">
+        <v>0.24789230796024875</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.26768430713690194</v>
+      </c>
+      <c r="B26">
+        <v>0.21967244024949434</v>
+      </c>
+      <c r="C26">
+        <v>0.24933922847531953</v>
+      </c>
+      <c r="D26">
+        <v>0.25328620643542554</v>
+      </c>
+      <c r="E26">
+        <v>0.2519727170281712</v>
+      </c>
+      <c r="F26">
+        <v>0.23223510042583989</v>
+      </c>
+      <c r="G26">
+        <v>0.25109773885854142</v>
+      </c>
+      <c r="H26">
+        <v>0.25625543995352135</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.25351544535420545</v>
+      </c>
+      <c r="B27">
+        <v>0.25706249842630963</v>
+      </c>
+      <c r="C27">
+        <v>0.25431710244057393</v>
+      </c>
+      <c r="D27">
+        <v>0.25098008984520698</v>
+      </c>
+      <c r="E27">
+        <v>0.25322030730547612</v>
+      </c>
+      <c r="F27">
+        <v>0.25083826488520056</v>
+      </c>
+      <c r="G27">
+        <v>0.25133591460074367</v>
+      </c>
+      <c r="H27">
+        <v>0.26373790093219202</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.30270170544060027</v>
+      </c>
+      <c r="B28">
+        <v>0.26186586203288087</v>
+      </c>
+      <c r="C28">
+        <v>0.25949617115758472</v>
+      </c>
+      <c r="D28">
+        <v>0.26051238379018604</v>
+      </c>
+      <c r="E28">
+        <v>0.26474140183678918</v>
+      </c>
+      <c r="F28">
+        <v>0.26045580356286446</v>
+      </c>
+      <c r="G28">
+        <v>0.25739868187198878</v>
+      </c>
+      <c r="H28">
+        <v>0.26135117507055733</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.26606949234953159</v>
+      </c>
+      <c r="B29">
+        <v>0.27267468318910809</v>
+      </c>
+      <c r="C29">
+        <v>0.26057458094700664</v>
+      </c>
+      <c r="D29">
+        <v>0.25550806779818558</v>
+      </c>
+      <c r="E29">
+        <v>0.258882586174498</v>
+      </c>
+      <c r="F29">
+        <v>0.25734636096677993</v>
+      </c>
+      <c r="G29">
+        <v>0.26095829431508</v>
+      </c>
+      <c r="H29">
+        <v>0.43298836460807355</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.3557559262648361</v>
+      </c>
+      <c r="B30">
+        <v>0.26894803551246665</v>
+      </c>
+      <c r="C30">
+        <v>0.27143991511279025</v>
+      </c>
+      <c r="D30">
+        <v>0.25764973371177918</v>
+      </c>
+      <c r="E30">
+        <v>0.26237044280544825</v>
+      </c>
+      <c r="F30">
+        <v>0.25618626049064375</v>
+      </c>
+      <c r="G30">
+        <v>0.26770606465330882</v>
+      </c>
+      <c r="H30">
+        <v>0.26213644430054156</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.25521816270154468</v>
+      </c>
+      <c r="B31">
+        <v>0.25541020225887751</v>
+      </c>
+      <c r="C31">
+        <v>0.25571057677109782</v>
+      </c>
+      <c r="D31">
+        <v>0.25384008330749058</v>
+      </c>
+      <c r="E31">
+        <v>0.25640473627058158</v>
+      </c>
+      <c r="F31">
+        <v>0.25487090977697374</v>
+      </c>
+      <c r="G31">
+        <v>0.25468967760880673</v>
+      </c>
+      <c r="H31">
+        <v>0.25426013257711511</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.25379542604455146</v>
+      </c>
+      <c r="B32">
+        <v>0.25414135551387701</v>
+      </c>
+      <c r="C32">
+        <v>0.25506003422825219</v>
+      </c>
+      <c r="D32">
+        <v>0.25191733306153014</v>
+      </c>
+      <c r="E32">
+        <v>0.25848244617275046</v>
+      </c>
+      <c r="F32">
+        <v>0.25341290091179541</v>
+      </c>
+      <c r="G32">
+        <v>0.2553871723948386</v>
+      </c>
+      <c r="H32">
+        <v>0.25362220839520855</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.25530848763113456</v>
+      </c>
+      <c r="B33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="F33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H33">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.25449263572689096</v>
+      </c>
+      <c r="B34">
+        <v>0.25926746846608106</v>
+      </c>
+      <c r="C34">
+        <v>0.26065172719671931</v>
+      </c>
+      <c r="D34">
+        <v>0.25587335952926388</v>
+      </c>
+      <c r="E34">
+        <v>0.25972029120222373</v>
+      </c>
+      <c r="F34">
+        <v>0.25550852850613931</v>
+      </c>
+      <c r="G34">
+        <v>0.25630132046427695</v>
+      </c>
+      <c r="H34">
+        <v>0.25521248304142197</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.25416718648698361</v>
+      </c>
+      <c r="B35">
+        <v>0.25994303231387428</v>
+      </c>
+      <c r="C35">
+        <v>0.26117610099063732</v>
+      </c>
+      <c r="D35">
+        <v>0.25930381858870727</v>
+      </c>
+      <c r="E35">
+        <v>0.26032843772460379</v>
+      </c>
+      <c r="F35">
+        <v>0.25583927881449331</v>
+      </c>
+      <c r="G35">
+        <v>0.25658305900220951</v>
+      </c>
+      <c r="H35">
+        <v>0.25559123188768018</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.29152471888583875</v>
+      </c>
+      <c r="B36">
+        <v>0.25920424998262026</v>
+      </c>
+      <c r="C36">
+        <v>0.25491125157060152</v>
+      </c>
+      <c r="D36">
+        <v>0.26090616032958597</v>
+      </c>
+      <c r="E36">
+        <v>0.25945865829683334</v>
+      </c>
+      <c r="F36">
+        <v>0.26128017646538859</v>
+      </c>
+      <c r="G36">
+        <v>0.2557413525345254</v>
+      </c>
+      <c r="H36">
+        <v>0.26077878105254199</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.26156808287816119</v>
+      </c>
+      <c r="B37">
+        <v>0.25521212827278628</v>
+      </c>
+      <c r="C37">
+        <v>0.25455617172727402</v>
+      </c>
+      <c r="D37">
+        <v>0.25190191386322519</v>
+      </c>
+      <c r="E37">
+        <v>0.25652772243865213</v>
+      </c>
+      <c r="F37">
+        <v>0.25565411450397901</v>
+      </c>
+      <c r="G37">
+        <v>0.25165856399075687</v>
+      </c>
+      <c r="H37">
+        <v>0.2545951492983225</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.25674619980631452</v>
+      </c>
       <c r="B38">
+        <v>0.26407917027284666</v>
+      </c>
+      <c r="C38">
+        <v>0.25855752493177114</v>
+      </c>
+      <c r="D38">
+        <v>0.25310971215344746</v>
+      </c>
+      <c r="E38">
+        <v>0.25555176983628813</v>
+      </c>
+      <c r="F38">
+        <v>0.25693451219915753</v>
+      </c>
+      <c r="G38">
+        <v>0.25543347057128235</v>
+      </c>
+      <c r="H38">
+        <v>0.257563166370261</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.25735989821464889</v>
+      </c>
+      <c r="B39">
         <v>0.25552897580273276</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>0.25725970664677777</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0.25193668903794569</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>0.25731741998436625</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.2527522737764783</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>0.25165173117628614</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>0.25674316140419984</v>
       </c>
-      <c r="I38">
-        <v>0</v>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.2764509236917374</v>
+      </c>
+      <c r="B40">
+        <v>0.26293245382176972</v>
+      </c>
+      <c r="C40">
+        <v>0.26789765783227282</v>
+      </c>
+      <c r="D40">
+        <v>0.2540776269158595</v>
+      </c>
+      <c r="E40">
+        <v>0.26303071486032459</v>
+      </c>
+      <c r="F40">
+        <v>0.2584758893636</v>
+      </c>
+      <c r="G40">
+        <v>0.25842789939825417</v>
+      </c>
+      <c r="H40">
+        <v>0.26004813849390468</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.25335250006746501</v>
+      </c>
+      <c r="B41">
+        <v>0.26116954138704129</v>
+      </c>
+      <c r="C41">
+        <v>0.25428542727469478</v>
+      </c>
+      <c r="D41">
+        <v>0.25196990592209501</v>
+      </c>
+      <c r="E41">
+        <v>0.25353776786181975</v>
+      </c>
+      <c r="F41">
+        <v>0.25447678636331023</v>
+      </c>
+      <c r="G41">
+        <v>0.25529596930741305</v>
+      </c>
+      <c r="H41">
+        <v>0.26703413771254619</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.31466031543441286</v>
+      </c>
+      <c r="B42">
+        <v>0.26843913816256276</v>
+      </c>
+      <c r="C42">
+        <v>0.26841135889135448</v>
+      </c>
+      <c r="D42">
+        <v>0.26733674265638563</v>
+      </c>
+      <c r="E42">
+        <v>0.27317427365658919</v>
+      </c>
+      <c r="F42">
+        <v>0.26823103438670154</v>
+      </c>
+      <c r="G42">
+        <v>0.26501183198623307</v>
+      </c>
+      <c r="H42">
+        <v>0.26376410771211894</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.29959817029628599</v>
+      </c>
+      <c r="B43">
+        <v>0.26493037228796606</v>
+      </c>
+      <c r="C43">
+        <v>0.26076411329863036</v>
+      </c>
+      <c r="D43">
+        <v>0.26283549285927521</v>
+      </c>
+      <c r="E43">
+        <v>0.26553932049310514</v>
+      </c>
+      <c r="F43">
+        <v>0.26165986226119092</v>
+      </c>
+      <c r="G43">
+        <v>0.25867836459994692</v>
+      </c>
+      <c r="H43">
+        <v>0.26111641755464782</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.26336755913397952</v>
+      </c>
+      <c r="B44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="C44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="D44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="E44">
+        <v>0.47871869893207436</v>
+      </c>
+      <c r="F44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="G44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="H44">
+        <v>0.24790052512673627</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.25637845229248124</v>
+      </c>
+      <c r="B45">
+        <v>0.26160252786064703</v>
+      </c>
+      <c r="C45">
+        <v>0.26071240615739366</v>
+      </c>
+      <c r="D45">
+        <v>0.2574240046488494</v>
+      </c>
+      <c r="E45">
+        <v>0.27692369428052782</v>
+      </c>
+      <c r="F45">
+        <v>0.25460331582158385</v>
+      </c>
+      <c r="G45">
+        <v>0.25697672614706829</v>
+      </c>
+      <c r="H45">
+        <v>0.25944299122806608</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
